--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_21_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_21_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1308294.887860996</v>
+        <v>-1308974.14453096</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5600077.191480964</v>
+        <v>5600077.191480962</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>216.4427899637705</v>
       </c>
       <c r="C11" t="n">
-        <v>151.9985292329157</v>
+        <v>72.54613025085922</v>
       </c>
       <c r="D11" t="n">
-        <v>195.4354109659793</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>217.1775485358848</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>237.6699315459144</v>
+        <v>237.6699315459153</v>
       </c>
       <c r="H11" t="n">
-        <v>149.5579236355859</v>
+        <v>149.5579236355868</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>45.77294412754807</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>159.9491672039487</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>185.2492666819065</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>204.5495249146531</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>94.29900915159726</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.41154230737831</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.83258651717894</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T12" t="n">
-        <v>11.8165781757957</v>
+        <v>11.81657817579661</v>
       </c>
       <c r="U12" t="n">
-        <v>42.62796295526061</v>
+        <v>42.62796295526152</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>52.45135216708087</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>65.24239591995456</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>22.27750408191486</v>
       </c>
       <c r="Y12" t="n">
-        <v>64.12569272475839</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>8.059500838467528</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35.11941299550485</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>155.3353718580994</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>33.12269904515099</v>
+        <v>33.1226990451519</v>
       </c>
       <c r="T13" t="n">
-        <v>56.01254780844214</v>
+        <v>56.01254780844305</v>
       </c>
       <c r="U13" t="n">
-        <v>110.6430318713817</v>
+        <v>110.6430318713826</v>
       </c>
       <c r="V13" t="n">
-        <v>84.46763723809221</v>
+        <v>84.46763723809312</v>
       </c>
       <c r="W13" t="n">
-        <v>109.6345233087055</v>
+        <v>109.6345233087064</v>
       </c>
       <c r="X13" t="n">
-        <v>55.27962530450858</v>
+        <v>55.27962530450949</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.15449306057627</v>
+        <v>99.59884835704467</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.4427899637695</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>204.4541069214522</v>
       </c>
       <c r="D14" t="n">
-        <v>195.4354109659793</v>
+        <v>195.4354109659802</v>
       </c>
       <c r="E14" t="n">
-        <v>217.1775485358848</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>236.3493646238629</v>
       </c>
       <c r="G14" t="n">
-        <v>237.6699315459144</v>
+        <v>213.8305617705453</v>
       </c>
       <c r="H14" t="n">
-        <v>149.5579236355859</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>45.77294412754716</v>
+        <v>45.77294412754807</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>49.73196234554797</v>
+        <v>215.9461227108519</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1133910541359</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.41154230737831</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.83258651717894</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T15" t="n">
-        <v>11.8165781757957</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U15" t="n">
-        <v>42.62796295526061</v>
+        <v>216.28827711433</v>
       </c>
       <c r="V15" t="n">
-        <v>52.45135216707996</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>88.48588309749242</v>
+        <v>44.05827328727605</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>16.93579892784845</v>
       </c>
     </row>
     <row r="16">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.059500838466619</v>
+        <v>8.059500838467528</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>25.72176388990799</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>40.02572108511005</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,31 +1807,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.13815342172971</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>33.12269904515099</v>
+        <v>206.7830132042204</v>
       </c>
       <c r="T16" t="n">
-        <v>56.01254780844214</v>
+        <v>131.1576818890515</v>
       </c>
       <c r="U16" t="n">
-        <v>110.6430318713817</v>
+        <v>110.6430318713826</v>
       </c>
       <c r="V16" t="n">
-        <v>84.46763723809221</v>
+        <v>84.46763723809312</v>
       </c>
       <c r="W16" t="n">
-        <v>109.6345233087055</v>
+        <v>109.6345233087064</v>
       </c>
       <c r="X16" t="n">
-        <v>55.27962530450858</v>
+        <v>55.27962530450949</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.15449306057627</v>
+        <v>46.15449306057718</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>115.4434584561718</v>
+        <v>115.4434584561727</v>
       </c>
       <c r="C17" t="n">
-        <v>103.4547754138535</v>
+        <v>103.4547754138545</v>
       </c>
       <c r="D17" t="n">
-        <v>94.43607945838147</v>
+        <v>94.43607945838244</v>
       </c>
       <c r="E17" t="n">
-        <v>116.178217028287</v>
+        <v>116.178217028288</v>
       </c>
       <c r="F17" t="n">
-        <v>135.3500331162642</v>
+        <v>135.3500331162651</v>
       </c>
       <c r="G17" t="n">
-        <v>136.6706000383166</v>
+        <v>136.6706000383176</v>
       </c>
       <c r="H17" t="n">
-        <v>48.55859212798816</v>
+        <v>48.5585921279891</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>58.94983569635087</v>
+        <v>58.94983569635184</v>
       </c>
       <c r="W17" t="n">
-        <v>84.24993517430778</v>
+        <v>84.24993517430875</v>
       </c>
       <c r="X17" t="n">
-        <v>103.5501934070537</v>
+        <v>103.5501934070554</v>
       </c>
       <c r="Y17" t="n">
-        <v>114.9467912032532</v>
+        <v>114.9467912032541</v>
       </c>
     </row>
     <row r="18">
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>9.33570064198565</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -1938,10 +1938,10 @@
         <v>127.1133910541359</v>
       </c>
       <c r="H18" t="n">
-        <v>95.77238994002832</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.41154230737831</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.83258651717894</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>144.4254489490643</v>
       </c>
       <c r="T18" t="n">
         <v>185.4768923348651</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>89.05185241974796</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>155.3353718580994</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.13815342172971</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.6728619675116</v>
       </c>
       <c r="U19" t="n">
-        <v>36.71071722977895</v>
+        <v>9.643700363784891</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>8.63519180110768</v>
+        <v>8.635191801108647</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115.4434584561718</v>
+        <v>115.4434584561727</v>
       </c>
       <c r="C20" t="n">
-        <v>103.4547754138535</v>
+        <v>103.4547754138545</v>
       </c>
       <c r="D20" t="n">
-        <v>94.43607945838147</v>
+        <v>94.43607945838244</v>
       </c>
       <c r="E20" t="n">
-        <v>116.178217028287</v>
+        <v>116.178217028288</v>
       </c>
       <c r="F20" t="n">
-        <v>135.3500331162642</v>
+        <v>135.3500331162651</v>
       </c>
       <c r="G20" t="n">
-        <v>136.6706000383166</v>
+        <v>136.6706000383176</v>
       </c>
       <c r="H20" t="n">
-        <v>48.55859212798816</v>
+        <v>48.55859212799</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>58.94983569635087</v>
+        <v>58.94983569635184</v>
       </c>
       <c r="W20" t="n">
-        <v>84.24993517430778</v>
+        <v>84.24993517430875</v>
       </c>
       <c r="X20" t="n">
-        <v>103.5501934070544</v>
+        <v>103.5501934070554</v>
       </c>
       <c r="Y20" t="n">
-        <v>114.9467912032532</v>
+        <v>114.9467912032541</v>
       </c>
     </row>
     <row r="21">
@@ -2160,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.83258651717894</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>145.1823065335695</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4768923348651</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.28827711433</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>147.7128500467292</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>42.04297751381412</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>107.7849359689795</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>155.3353718580994</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.4959289025634</v>
       </c>
       <c r="J22" t="n">
         <v>40.02572108511005</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.7830132042204</v>
       </c>
       <c r="T22" t="n">
         <v>229.6728619675116</v>
       </c>
       <c r="U22" t="n">
-        <v>28.71256091478251</v>
+        <v>9.643700363784891</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>8.635191801108647</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115.4434584561718</v>
+        <v>115.4434584561727</v>
       </c>
       <c r="C23" t="n">
-        <v>103.4547754138535</v>
+        <v>103.4547754138545</v>
       </c>
       <c r="D23" t="n">
-        <v>94.43607945838147</v>
+        <v>94.43607945838244</v>
       </c>
       <c r="E23" t="n">
-        <v>116.178217028287</v>
+        <v>116.178217028288</v>
       </c>
       <c r="F23" t="n">
-        <v>135.3500331162642</v>
+        <v>135.3500331162651</v>
       </c>
       <c r="G23" t="n">
-        <v>136.6706000383166</v>
+        <v>136.6706000383176</v>
       </c>
       <c r="H23" t="n">
-        <v>48.55859212798816</v>
+        <v>48.55859212798913</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>58.94983569635087</v>
+        <v>58.94983569635184</v>
       </c>
       <c r="W23" t="n">
-        <v>84.24993517430778</v>
+        <v>84.24993517430875</v>
       </c>
       <c r="X23" t="n">
-        <v>103.5501934070544</v>
+        <v>103.5501934070554</v>
       </c>
       <c r="Y23" t="n">
-        <v>114.9467912032532</v>
+        <v>114.9467912032541</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>31.74023238218727</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.83258651717894</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>98.22446288077208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>134.4959289025634</v>
       </c>
       <c r="J25" t="n">
-        <v>40.02572108511005</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.13815342172971</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>206.7830132042204</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>99.80686534210483</v>
+        <v>9.643700363784891</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>8.63519180110768</v>
+        <v>8.635191801108647</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>37.1379530005235</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>222.2189062870575</v>
       </c>
       <c r="I29" t="n">
-        <v>46.46854094274045</v>
+        <v>46.46854094274043</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.39543063210685</v>
+        <v>70.39543063210684</v>
       </c>
       <c r="T29" t="n">
-        <v>118.4339267790188</v>
+        <v>118.4339267790187</v>
       </c>
       <c r="U29" t="n">
         <v>151.2881353375185</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.72048348993823</v>
+        <v>80.72048348993822</v>
       </c>
       <c r="C31" t="n">
-        <v>66.92047833533871</v>
+        <v>66.9204783353387</v>
       </c>
       <c r="D31" t="n">
-        <v>50.5418427329171</v>
+        <v>50.54184273291709</v>
       </c>
       <c r="E31" t="n">
-        <v>49.48959258869655</v>
+        <v>49.48959258869654</v>
       </c>
       <c r="F31" t="n">
-        <v>49.95651691688286</v>
+        <v>49.95651691688285</v>
       </c>
       <c r="G31" t="n">
-        <v>65.95638307366409</v>
+        <v>65.95638307366407</v>
       </c>
       <c r="H31" t="n">
-        <v>54.33604035050167</v>
+        <v>54.33604035050165</v>
       </c>
       <c r="I31" t="n">
-        <v>33.49659739496566</v>
+        <v>33.49659739496565</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.6695807155639</v>
+        <v>34.66958071556388</v>
       </c>
       <c r="S31" t="n">
         <v>105.7836816966226</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>289.1037726152413</v>
+        <v>289.1037726152412</v>
       </c>
       <c r="C32" t="n">
-        <v>277.115089572923</v>
+        <v>277.1150895729229</v>
       </c>
       <c r="D32" t="n">
-        <v>268.096393617451</v>
+        <v>268.0963936174509</v>
       </c>
       <c r="E32" t="n">
         <v>289.8385311873565</v>
@@ -3041,13 +3041,13 @@
         <v>309.0103472753336</v>
       </c>
       <c r="G32" t="n">
-        <v>310.3309141973862</v>
+        <v>310.3309141973861</v>
       </c>
       <c r="H32" t="n">
         <v>222.2189062870576</v>
       </c>
       <c r="I32" t="n">
-        <v>46.46854094274053</v>
+        <v>46.46854094274047</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.39543063210695</v>
+        <v>70.39543063210689</v>
       </c>
       <c r="T32" t="n">
-        <v>118.4339267790189</v>
+        <v>118.4339267790188</v>
       </c>
       <c r="U32" t="n">
-        <v>151.2881353375186</v>
+        <v>151.2881353375185</v>
       </c>
       <c r="V32" t="n">
-        <v>232.6101498554204</v>
+        <v>232.6101498554203</v>
       </c>
       <c r="W32" t="n">
         <v>257.9102493333772</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.72048348993832</v>
+        <v>80.72048348993826</v>
       </c>
       <c r="C34" t="n">
-        <v>66.9204783353388</v>
+        <v>66.92047833533874</v>
       </c>
       <c r="D34" t="n">
-        <v>50.54184273291719</v>
+        <v>50.54184273291713</v>
       </c>
       <c r="E34" t="n">
-        <v>49.48959258869664</v>
+        <v>49.48959258869658</v>
       </c>
       <c r="F34" t="n">
-        <v>49.95651691688295</v>
+        <v>49.95651691688289</v>
       </c>
       <c r="G34" t="n">
-        <v>65.95638307366418</v>
+        <v>65.95638307366413</v>
       </c>
       <c r="H34" t="n">
-        <v>54.33604035050175</v>
+        <v>54.3360403505017</v>
       </c>
       <c r="I34" t="n">
-        <v>33.49659739496575</v>
+        <v>33.49659739496569</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66958071556398</v>
+        <v>34.66958071556392</v>
       </c>
       <c r="S34" t="n">
-        <v>105.7836816966227</v>
+        <v>105.7836816966226</v>
       </c>
       <c r="T34" t="n">
         <v>128.6735304599138</v>
@@ -3247,13 +3247,13 @@
         <v>157.1286198895639</v>
       </c>
       <c r="W34" t="n">
-        <v>182.2955059601772</v>
+        <v>182.2955059601771</v>
       </c>
       <c r="X34" t="n">
-        <v>127.9406079559803</v>
+        <v>127.9406079559802</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.815475712048</v>
+        <v>118.8154757120479</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.571115727135</v>
+        <v>212.571115727134</v>
       </c>
       <c r="C35" t="n">
-        <v>200.5824326848168</v>
+        <v>200.5824326848158</v>
       </c>
       <c r="D35" t="n">
-        <v>191.5637367293447</v>
+        <v>191.5637367293437</v>
       </c>
       <c r="E35" t="n">
-        <v>213.3058742992503</v>
+        <v>213.3058742992493</v>
       </c>
       <c r="F35" t="n">
-        <v>232.4776903872274</v>
+        <v>232.4776903872264</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7982573092799</v>
+        <v>233.7982573092789</v>
       </c>
       <c r="H35" t="n">
-        <v>145.6862493989514</v>
+        <v>145.6862493989504</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>41.90126989091262</v>
+        <v>41.90126989091163</v>
       </c>
       <c r="U35" t="n">
-        <v>74.75547844941235</v>
+        <v>74.75547844941136</v>
       </c>
       <c r="V35" t="n">
-        <v>156.0774929673141</v>
+        <v>156.0774929673131</v>
       </c>
       <c r="W35" t="n">
-        <v>181.377592445271</v>
+        <v>181.37759244527</v>
       </c>
       <c r="X35" t="n">
-        <v>200.6778506780176</v>
+        <v>200.6778506780167</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.0744484742164</v>
+        <v>212.0744484742154</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>127.1133910541359</v>
       </c>
       <c r="H36" t="n">
-        <v>36.97358973326071</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>36.97358973324879</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.187826601832086</v>
+        <v>4.187826601831091</v>
       </c>
       <c r="C37" t="n">
-        <v>128.2376678922456</v>
+        <v>113.6848402865582</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>15.13815342172971</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>29.25102480851645</v>
+        <v>29.25102480851546</v>
       </c>
       <c r="T37" t="n">
-        <v>52.14087357180761</v>
+        <v>52.14087357180662</v>
       </c>
       <c r="U37" t="n">
-        <v>106.7713576347472</v>
+        <v>106.7713576347462</v>
       </c>
       <c r="V37" t="n">
-        <v>80.59596300145768</v>
+        <v>80.59596300145668</v>
       </c>
       <c r="W37" t="n">
-        <v>105.7628490720709</v>
+        <v>105.7628490720699</v>
       </c>
       <c r="X37" t="n">
-        <v>51.40795106787405</v>
+        <v>51.40795106787306</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.28281882394174</v>
+        <v>42.28281882394074</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.571115727135</v>
+        <v>212.571115727134</v>
       </c>
       <c r="C38" t="n">
-        <v>200.5824326848168</v>
+        <v>200.5824326848158</v>
       </c>
       <c r="D38" t="n">
-        <v>191.5637367293447</v>
+        <v>191.5637367293437</v>
       </c>
       <c r="E38" t="n">
-        <v>213.3058742992503</v>
+        <v>213.3058742992493</v>
       </c>
       <c r="F38" t="n">
-        <v>232.4776903872274</v>
+        <v>232.4776903872264</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7982573092799</v>
+        <v>233.7982573092789</v>
       </c>
       <c r="H38" t="n">
-        <v>145.6862493989514</v>
+        <v>145.6862493989504</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>41.90126989091262</v>
+        <v>41.90126989091163</v>
       </c>
       <c r="U38" t="n">
-        <v>74.75547844941235</v>
+        <v>74.75547844941136</v>
       </c>
       <c r="V38" t="n">
-        <v>156.0774929673141</v>
+        <v>156.0774929673131</v>
       </c>
       <c r="W38" t="n">
-        <v>181.377592445271</v>
+        <v>181.37759244527</v>
       </c>
       <c r="X38" t="n">
-        <v>200.6778506780176</v>
+        <v>200.6778506780167</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.0744484742164</v>
+        <v>212.0744484742154</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.1133910541359</v>
+        <v>125.2543942702054</v>
       </c>
       <c r="H39" t="n">
-        <v>95.77238994002832</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>56.41154230737831</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>38.83258651717894</v>
       </c>
       <c r="S39" t="n">
-        <v>29.97196401942483</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T39" t="n">
         <v>185.4768923348651</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.187826601832086</v>
+        <v>4.187826601831091</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>87.10870031533388</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>113.0995144705158</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>29.25102480851645</v>
+        <v>29.25102480851546</v>
       </c>
       <c r="T40" t="n">
-        <v>52.14087357180761</v>
+        <v>52.14087357180662</v>
       </c>
       <c r="U40" t="n">
-        <v>106.7713576347472</v>
+        <v>106.7713576347462</v>
       </c>
       <c r="V40" t="n">
-        <v>80.59596300145768</v>
+        <v>80.59596300145668</v>
       </c>
       <c r="W40" t="n">
-        <v>105.7628490720709</v>
+        <v>105.7628490720699</v>
       </c>
       <c r="X40" t="n">
-        <v>51.40795106787405</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.28281882394174</v>
+        <v>42.28281882394074</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.5711157271351</v>
+        <v>212.571115727134</v>
       </c>
       <c r="C41" t="n">
-        <v>200.5824326848168</v>
+        <v>200.5824326848158</v>
       </c>
       <c r="D41" t="n">
-        <v>191.5637367293448</v>
+        <v>191.5637367293438</v>
       </c>
       <c r="E41" t="n">
-        <v>213.3058742992503</v>
+        <v>213.3058742992493</v>
       </c>
       <c r="F41" t="n">
-        <v>232.4776903872275</v>
+        <v>232.4776903872265</v>
       </c>
       <c r="G41" t="n">
-        <v>233.79825730928</v>
+        <v>233.7982573092789</v>
       </c>
       <c r="H41" t="n">
-        <v>145.6862493989515</v>
+        <v>145.6862493989505</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>41.90126989091272</v>
+        <v>41.90126989091166</v>
       </c>
       <c r="U41" t="n">
-        <v>74.75547844941244</v>
+        <v>74.75547844941138</v>
       </c>
       <c r="V41" t="n">
-        <v>156.0774929673142</v>
+        <v>156.0774929673132</v>
       </c>
       <c r="W41" t="n">
-        <v>181.3775924452711</v>
+        <v>181.3775924452701</v>
       </c>
       <c r="X41" t="n">
-        <v>200.6778506780177</v>
+        <v>200.6778506780167</v>
       </c>
       <c r="Y41" t="n">
-        <v>212.0744484742165</v>
+        <v>212.0744484742154</v>
       </c>
     </row>
     <row r="42">
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>38.83258651717894</v>
       </c>
       <c r="S42" t="n">
-        <v>29.97196401942483</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T42" t="n">
         <v>185.4768923348651</v>
       </c>
       <c r="U42" t="n">
-        <v>216.28827711433</v>
+        <v>62.2453480829931</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.187826601832171</v>
+        <v>4.187826601831119</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>29.25102480851654</v>
+        <v>29.25102480851549</v>
       </c>
       <c r="T43" t="n">
-        <v>52.1408735718077</v>
+        <v>52.14087357180664</v>
       </c>
       <c r="U43" t="n">
-        <v>106.7713576347473</v>
+        <v>106.7713576347462</v>
       </c>
       <c r="V43" t="n">
-        <v>80.59596300145776</v>
+        <v>80.59596300145671</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>105.76284907207</v>
       </c>
       <c r="X43" t="n">
-        <v>153.65480480493</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.28281882394182</v>
+        <v>144.5296725610042</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.5711157271351</v>
+        <v>212.571115727134</v>
       </c>
       <c r="C44" t="n">
-        <v>200.5824326848168</v>
+        <v>200.5824326848158</v>
       </c>
       <c r="D44" t="n">
-        <v>191.5637367293448</v>
+        <v>191.5637367293438</v>
       </c>
       <c r="E44" t="n">
-        <v>213.3058742992503</v>
+        <v>213.3058742992493</v>
       </c>
       <c r="F44" t="n">
-        <v>232.4776903872275</v>
+        <v>232.4776903872265</v>
       </c>
       <c r="G44" t="n">
-        <v>233.79825730928</v>
+        <v>233.7982573092789</v>
       </c>
       <c r="H44" t="n">
-        <v>145.6862493989515</v>
+        <v>145.6862493989505</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>41.90126989091272</v>
+        <v>41.90126989091166</v>
       </c>
       <c r="U44" t="n">
-        <v>74.75547844941244</v>
+        <v>74.75547844941138</v>
       </c>
       <c r="V44" t="n">
-        <v>156.0774929673142</v>
+        <v>156.0774929673132</v>
       </c>
       <c r="W44" t="n">
-        <v>181.3775924452711</v>
+        <v>181.3775924452701</v>
       </c>
       <c r="X44" t="n">
-        <v>200.6778506780177</v>
+        <v>200.6778506780167</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.0744484742165</v>
+        <v>212.0744484742154</v>
       </c>
     </row>
     <row r="45">
@@ -4107,7 +4107,7 @@
         <v>145.1823065335695</v>
       </c>
       <c r="T45" t="n">
-        <v>185.4768923348651</v>
+        <v>31.43396330352796</v>
       </c>
       <c r="U45" t="n">
         <v>216.28827711433</v>
@@ -4119,7 +4119,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>41.89488920965955</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
         <v>190.5961130869169</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.187826601832171</v>
+        <v>4.187826601831119</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>128.2376678922534</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>29.25102480851654</v>
+        <v>29.25102480851549</v>
       </c>
       <c r="T46" t="n">
-        <v>52.1408735718077</v>
+        <v>52.14087357180664</v>
       </c>
       <c r="U46" t="n">
-        <v>106.7713576347473</v>
+        <v>106.7713576347462</v>
       </c>
       <c r="V46" t="n">
-        <v>80.59596300145776</v>
+        <v>80.59596300145671</v>
       </c>
       <c r="W46" t="n">
-        <v>105.762849072071</v>
+        <v>105.76284907207</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>51.40795106787309</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.5296725609976</v>
+        <v>42.28281882394077</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>984.3726316845589</v>
+        <v>487.3369160442375</v>
       </c>
       <c r="C11" t="n">
-        <v>830.8387637725228</v>
+        <v>414.0579965989249</v>
       </c>
       <c r="D11" t="n">
-        <v>633.4292577462811</v>
+        <v>414.0579965989249</v>
       </c>
       <c r="E11" t="n">
-        <v>414.0579965989227</v>
+        <v>414.0579965989249</v>
       </c>
       <c r="F11" t="n">
-        <v>414.0579965989227</v>
+        <v>414.0579965989249</v>
       </c>
       <c r="G11" t="n">
-        <v>173.9873586737567</v>
+        <v>173.9873586737579</v>
       </c>
       <c r="H11" t="n">
-        <v>22.91874894084166</v>
+        <v>22.91874894084188</v>
       </c>
       <c r="I11" t="n">
-        <v>22.91874894084166</v>
+        <v>22.91874894084188</v>
       </c>
       <c r="J11" t="n">
-        <v>146.3995003278777</v>
+        <v>146.3995003278779</v>
       </c>
       <c r="K11" t="n">
-        <v>146.3995003278777</v>
+        <v>430.0190184707962</v>
       </c>
       <c r="L11" t="n">
-        <v>146.3995003278777</v>
+        <v>713.6385366137145</v>
       </c>
       <c r="M11" t="n">
-        <v>146.3995003278777</v>
+        <v>713.6385366137145</v>
       </c>
       <c r="N11" t="n">
-        <v>418.7629927402627</v>
+        <v>997.2580547566328</v>
       </c>
       <c r="O11" t="n">
-        <v>702.3825108831782</v>
+        <v>1145.937447042094</v>
       </c>
       <c r="P11" t="n">
-        <v>986.0020290260936</v>
+        <v>1145.937447042094</v>
       </c>
       <c r="Q11" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042094</v>
       </c>
       <c r="R11" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042094</v>
       </c>
       <c r="S11" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042094</v>
       </c>
       <c r="T11" t="n">
-        <v>1145.937447042083</v>
+        <v>1099.702149943561</v>
       </c>
       <c r="U11" t="n">
-        <v>1145.937447042083</v>
+        <v>1099.702149943561</v>
       </c>
       <c r="V11" t="n">
-        <v>984.3726316845589</v>
+        <v>1099.702149943561</v>
       </c>
       <c r="W11" t="n">
-        <v>984.3726316845589</v>
+        <v>912.5816785476958</v>
       </c>
       <c r="X11" t="n">
-        <v>984.3726316845589</v>
+        <v>705.965996815723</v>
       </c>
       <c r="Y11" t="n">
-        <v>984.3726316845589</v>
+        <v>705.965996815723</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>319.3162197500126</v>
+        <v>610.3877370213922</v>
       </c>
       <c r="C12" t="n">
-        <v>157.6125469909673</v>
+        <v>448.684064262347</v>
       </c>
       <c r="D12" t="n">
-        <v>157.6125469909673</v>
+        <v>309.845427252559</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6125469909673</v>
+        <v>309.845427252559</v>
       </c>
       <c r="F12" t="n">
-        <v>22.91874894084166</v>
+        <v>175.1516292024334</v>
       </c>
       <c r="G12" t="n">
-        <v>22.91874894084166</v>
+        <v>79.90010480688059</v>
       </c>
       <c r="H12" t="n">
-        <v>22.91874894084166</v>
+        <v>79.90010480688059</v>
       </c>
       <c r="I12" t="n">
-        <v>22.91874894084166</v>
+        <v>22.91874894084188</v>
       </c>
       <c r="J12" t="n">
-        <v>22.91874894084166</v>
+        <v>113.835345342757</v>
       </c>
       <c r="K12" t="n">
-        <v>304.8163121699844</v>
+        <v>395.7329085718997</v>
       </c>
       <c r="L12" t="n">
-        <v>588.4358303128998</v>
+        <v>663.1183272932476</v>
       </c>
       <c r="M12" t="n">
-        <v>872.0553484558153</v>
+        <v>946.7378454361659</v>
       </c>
       <c r="N12" t="n">
-        <v>946.7378454361545</v>
+        <v>946.7378454361659</v>
       </c>
       <c r="O12" t="n">
-        <v>946.7378454361545</v>
+        <v>946.7378454361659</v>
       </c>
       <c r="P12" t="n">
-        <v>946.7378454361545</v>
+        <v>946.7378454361659</v>
       </c>
       <c r="Q12" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042094</v>
       </c>
       <c r="R12" t="n">
-        <v>1106.712612176246</v>
+        <v>1145.937447042094</v>
       </c>
       <c r="S12" t="n">
-        <v>1106.712612176246</v>
+        <v>999.2886525637412</v>
       </c>
       <c r="T12" t="n">
-        <v>1094.776674624937</v>
+        <v>987.3527150124314</v>
       </c>
       <c r="U12" t="n">
-        <v>1051.71812618528</v>
+        <v>944.2941665727733</v>
       </c>
       <c r="V12" t="n">
-        <v>823.3225036336135</v>
+        <v>891.3130027676411</v>
       </c>
       <c r="W12" t="n">
-        <v>582.0066348669235</v>
+        <v>825.411592747485</v>
       </c>
       <c r="X12" t="n">
-        <v>384.089646744718</v>
+        <v>802.9090633718134</v>
       </c>
       <c r="Y12" t="n">
-        <v>319.3162197500126</v>
+        <v>610.3877370213922</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.8229247798466</v>
+        <v>220.2531862572151</v>
       </c>
       <c r="C13" t="n">
-        <v>98.8229247798466</v>
+        <v>220.2531862572151</v>
       </c>
       <c r="D13" t="n">
-        <v>98.8229247798466</v>
+        <v>220.2531862572151</v>
       </c>
       <c r="E13" t="n">
-        <v>98.8229247798466</v>
+        <v>220.2531862572151</v>
       </c>
       <c r="F13" t="n">
-        <v>98.8229247798466</v>
+        <v>220.2531862572151</v>
       </c>
       <c r="G13" t="n">
-        <v>63.34877023893262</v>
+        <v>220.2531862572151</v>
       </c>
       <c r="H13" t="n">
-        <v>63.34877023893262</v>
+        <v>63.34877023893284</v>
       </c>
       <c r="I13" t="n">
-        <v>63.34877023893262</v>
+        <v>63.34877023893284</v>
       </c>
       <c r="J13" t="n">
-        <v>22.91874894084166</v>
+        <v>22.91874894084188</v>
       </c>
       <c r="K13" t="n">
-        <v>88.13463834193594</v>
+        <v>88.13463834193617</v>
       </c>
       <c r="L13" t="n">
-        <v>229.1938123344957</v>
+        <v>229.1938123344959</v>
       </c>
       <c r="M13" t="n">
-        <v>389.8383804074951</v>
+        <v>389.8383804074953</v>
       </c>
       <c r="N13" t="n">
-        <v>549.8976371792423</v>
+        <v>549.8976371792426</v>
       </c>
       <c r="O13" t="n">
-        <v>686.8197138278662</v>
+        <v>686.8197138278664</v>
       </c>
       <c r="P13" t="n">
-        <v>782.696028450951</v>
+        <v>782.6960284509512</v>
       </c>
       <c r="Q13" t="n">
-        <v>782.696028450951</v>
+        <v>782.6960284509512</v>
       </c>
       <c r="R13" t="n">
-        <v>782.696028450951</v>
+        <v>782.6960284509512</v>
       </c>
       <c r="S13" t="n">
-        <v>749.2387566881722</v>
+        <v>749.2387566881715</v>
       </c>
       <c r="T13" t="n">
-        <v>692.6604255685337</v>
+        <v>692.6604255685321</v>
       </c>
       <c r="U13" t="n">
-        <v>580.8997873146128</v>
+        <v>580.8997873146103</v>
       </c>
       <c r="V13" t="n">
-        <v>495.5789416195702</v>
+        <v>495.5789416195668</v>
       </c>
       <c r="W13" t="n">
-        <v>384.8369988835041</v>
+        <v>384.8369988834997</v>
       </c>
       <c r="X13" t="n">
-        <v>328.9989935254146</v>
+        <v>328.9989935254093</v>
       </c>
       <c r="Y13" t="n">
-        <v>282.3782934642264</v>
+        <v>228.3940961950611</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>830.838763772523</v>
+        <v>881.5747532659334</v>
       </c>
       <c r="C14" t="n">
-        <v>830.838763772523</v>
+        <v>675.0554533452746</v>
       </c>
       <c r="D14" t="n">
-        <v>633.4292577462812</v>
+        <v>477.645947319032</v>
       </c>
       <c r="E14" t="n">
-        <v>414.0579965989228</v>
+        <v>477.645947319032</v>
       </c>
       <c r="F14" t="n">
-        <v>414.0579965989228</v>
+        <v>238.9092153757362</v>
       </c>
       <c r="G14" t="n">
-        <v>173.9873586737567</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="H14" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="I14" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="J14" t="n">
-        <v>146.3995003278777</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="K14" t="n">
-        <v>430.0190184707931</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="L14" t="n">
-        <v>430.0190184707931</v>
+        <v>306.5382670837604</v>
       </c>
       <c r="M14" t="n">
-        <v>713.6385366137085</v>
+        <v>590.1577852266789</v>
       </c>
       <c r="N14" t="n">
-        <v>713.6385366137085</v>
+        <v>873.7773033695973</v>
       </c>
       <c r="O14" t="n">
-        <v>986.0020290260936</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="P14" t="n">
-        <v>986.0020290260936</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="Q14" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="R14" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="S14" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="T14" t="n">
-        <v>1099.70214994355</v>
+        <v>1099.702149943562</v>
       </c>
       <c r="U14" t="n">
-        <v>1099.70214994355</v>
+        <v>1099.702149943562</v>
       </c>
       <c r="V14" t="n">
-        <v>1099.70214994355</v>
+        <v>1099.702149943562</v>
       </c>
       <c r="W14" t="n">
-        <v>1099.70214994355</v>
+        <v>1099.702149943562</v>
       </c>
       <c r="X14" t="n">
-        <v>1099.70214994355</v>
+        <v>1099.702149943562</v>
       </c>
       <c r="Y14" t="n">
-        <v>1049.467844544007</v>
+        <v>881.5747532659334</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>355.3254794511565</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="C15" t="n">
-        <v>355.3254794511565</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="D15" t="n">
-        <v>355.3254794511565</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="E15" t="n">
-        <v>208.2974695080277</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="F15" t="n">
-        <v>208.2974695080277</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="G15" t="n">
-        <v>79.90010480688036</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="H15" t="n">
-        <v>79.90010480688036</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="I15" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="J15" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="K15" t="n">
-        <v>22.91874894084166</v>
+        <v>304.8163121699846</v>
       </c>
       <c r="L15" t="n">
-        <v>306.5382670837571</v>
+        <v>588.4358303129031</v>
       </c>
       <c r="M15" t="n">
-        <v>578.6984107562519</v>
+        <v>872.0553484558216</v>
       </c>
       <c r="N15" t="n">
-        <v>862.3179288991673</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="O15" t="n">
-        <v>862.3179288991673</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="P15" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="Q15" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="R15" t="n">
-        <v>1145.937447042083</v>
+        <v>1106.712612176258</v>
       </c>
       <c r="S15" t="n">
-        <v>1145.937447042083</v>
+        <v>960.0638176979046</v>
       </c>
       <c r="T15" t="n">
-        <v>1134.001509490774</v>
+        <v>772.7134214000611</v>
       </c>
       <c r="U15" t="n">
-        <v>1090.942961051117</v>
+        <v>554.2404142138691</v>
       </c>
       <c r="V15" t="n">
-        <v>1037.961797245986</v>
+        <v>325.8447916622031</v>
       </c>
       <c r="W15" t="n">
-        <v>796.6459284792955</v>
+        <v>84.52892289551312</v>
       </c>
       <c r="X15" t="n">
-        <v>707.2662485828386</v>
+        <v>40.02561654472922</v>
       </c>
       <c r="Y15" t="n">
-        <v>514.7449222324174</v>
+        <v>22.9187489408419</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>258.9463194640281</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="C16" t="n">
-        <v>89.33034992570836</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="D16" t="n">
-        <v>89.33034992570836</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="E16" t="n">
-        <v>89.33034992570836</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="F16" t="n">
-        <v>89.33034992570836</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="G16" t="n">
-        <v>89.33034992570836</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="H16" t="n">
-        <v>89.33034992570836</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="I16" t="n">
-        <v>63.34877023893262</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="J16" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="K16" t="n">
-        <v>88.13463834193594</v>
+        <v>88.13463834193618</v>
       </c>
       <c r="L16" t="n">
-        <v>229.1938123344957</v>
+        <v>229.193812334496</v>
       </c>
       <c r="M16" t="n">
-        <v>389.8383804074951</v>
+        <v>389.8383804074954</v>
       </c>
       <c r="N16" t="n">
-        <v>549.8976371792423</v>
+        <v>549.8976371792427</v>
       </c>
       <c r="O16" t="n">
-        <v>686.8197138278662</v>
+        <v>686.8197138278665</v>
       </c>
       <c r="P16" t="n">
-        <v>782.696028450951</v>
+        <v>782.6960284509513</v>
       </c>
       <c r="Q16" t="n">
-        <v>767.4049643885977</v>
+        <v>782.6960284509513</v>
       </c>
       <c r="R16" t="n">
-        <v>767.4049643885977</v>
+        <v>782.6960284509513</v>
       </c>
       <c r="S16" t="n">
-        <v>733.9476926258189</v>
+        <v>573.8242979416377</v>
       </c>
       <c r="T16" t="n">
-        <v>677.3693615061804</v>
+        <v>441.3417909829998</v>
       </c>
       <c r="U16" t="n">
-        <v>565.6087232522596</v>
+        <v>329.581152729078</v>
       </c>
       <c r="V16" t="n">
-        <v>480.2878775572169</v>
+        <v>244.2603070340344</v>
       </c>
       <c r="W16" t="n">
-        <v>369.5459348211508</v>
+        <v>133.5183642979674</v>
       </c>
       <c r="X16" t="n">
-        <v>313.7079294630613</v>
+        <v>77.68035893987695</v>
       </c>
       <c r="Y16" t="n">
-        <v>267.0872294018732</v>
+        <v>31.05965887868788</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>663.9776349843684</v>
+        <v>663.9776349843746</v>
       </c>
       <c r="C17" t="n">
-        <v>559.4778618390619</v>
+        <v>559.4778618390669</v>
       </c>
       <c r="D17" t="n">
-        <v>464.0878825881715</v>
+        <v>464.0878825881755</v>
       </c>
       <c r="E17" t="n">
-        <v>346.7361482161645</v>
+        <v>346.7361482161674</v>
       </c>
       <c r="F17" t="n">
-        <v>210.0189430482206</v>
+        <v>210.0189430482228</v>
       </c>
       <c r="G17" t="n">
-        <v>71.96783189840546</v>
+        <v>71.96783189840664</v>
       </c>
       <c r="H17" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="I17" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="J17" t="n">
-        <v>146.3995003278777</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="K17" t="n">
-        <v>430.0190184707931</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="L17" t="n">
-        <v>713.6385366137085</v>
+        <v>306.5382670837604</v>
       </c>
       <c r="M17" t="n">
-        <v>997.258054756624</v>
+        <v>590.1577852266789</v>
       </c>
       <c r="N17" t="n">
-        <v>1145.937447042083</v>
+        <v>873.7773033695973</v>
       </c>
       <c r="O17" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="P17" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="Q17" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="R17" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="S17" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="T17" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="U17" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="V17" t="n">
-        <v>1086.39215845991</v>
+        <v>1086.392158459921</v>
       </c>
       <c r="W17" t="n">
-        <v>1001.291213839397</v>
+        <v>1001.291213839407</v>
       </c>
       <c r="X17" t="n">
-        <v>896.6950588827774</v>
+        <v>896.6950588827856</v>
       </c>
       <c r="Y17" t="n">
-        <v>780.5871889805014</v>
+        <v>780.5871889805087</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>678.0463471117121</v>
+        <v>342.9912675581536</v>
       </c>
       <c r="C18" t="n">
-        <v>668.6163464632417</v>
+        <v>342.9912675581536</v>
       </c>
       <c r="D18" t="n">
-        <v>529.7777094534538</v>
+        <v>342.9912675581536</v>
       </c>
       <c r="E18" t="n">
-        <v>382.7496995103251</v>
+        <v>342.9912675581536</v>
       </c>
       <c r="F18" t="n">
-        <v>248.0559014601994</v>
+        <v>208.297469508028</v>
       </c>
       <c r="G18" t="n">
-        <v>119.6585367590521</v>
+        <v>79.90010480688061</v>
       </c>
       <c r="H18" t="n">
-        <v>22.91874894084166</v>
+        <v>79.90010480688061</v>
       </c>
       <c r="I18" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="J18" t="n">
-        <v>22.91874894084166</v>
+        <v>113.835345342757</v>
       </c>
       <c r="K18" t="n">
-        <v>304.8163121699844</v>
+        <v>113.835345342757</v>
       </c>
       <c r="L18" t="n">
-        <v>588.4358303128998</v>
+        <v>113.835345342757</v>
       </c>
       <c r="M18" t="n">
-        <v>588.4358303128998</v>
+        <v>113.835345342757</v>
       </c>
       <c r="N18" t="n">
-        <v>862.3179288991673</v>
+        <v>397.4548634856754</v>
       </c>
       <c r="O18" t="n">
-        <v>862.3179288991673</v>
+        <v>663.1183272932481</v>
       </c>
       <c r="P18" t="n">
-        <v>1145.937447042083</v>
+        <v>946.7378454361666</v>
       </c>
       <c r="Q18" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="R18" t="n">
-        <v>1106.712612176246</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="S18" t="n">
-        <v>1106.712612176246</v>
+        <v>1000.053155174353</v>
       </c>
       <c r="T18" t="n">
-        <v>919.362215878402</v>
+        <v>812.7027588765096</v>
       </c>
       <c r="U18" t="n">
-        <v>919.362215878402</v>
+        <v>812.7027588765096</v>
       </c>
       <c r="V18" t="n">
-        <v>919.362215878402</v>
+        <v>584.3071363248436</v>
       </c>
       <c r="W18" t="n">
-        <v>678.0463471117121</v>
+        <v>342.9912675581536</v>
       </c>
       <c r="X18" t="n">
-        <v>678.0463471117121</v>
+        <v>342.9912675581536</v>
       </c>
       <c r="Y18" t="n">
-        <v>678.0463471117121</v>
+        <v>342.9912675581536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.0456471881708</v>
+        <v>310.2045523377686</v>
       </c>
       <c r="C19" t="n">
-        <v>368.4296776498511</v>
+        <v>310.2045523377686</v>
       </c>
       <c r="D19" t="n">
-        <v>215.3577844776138</v>
+        <v>310.2045523377686</v>
       </c>
       <c r="E19" t="n">
-        <v>63.34877023893262</v>
+        <v>310.2045523377686</v>
       </c>
       <c r="F19" t="n">
-        <v>63.34877023893262</v>
+        <v>310.2045523377686</v>
       </c>
       <c r="G19" t="n">
-        <v>63.34877023893262</v>
+        <v>220.2531862572151</v>
       </c>
       <c r="H19" t="n">
-        <v>63.34877023893262</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="I19" t="n">
-        <v>63.34877023893262</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="J19" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="K19" t="n">
-        <v>88.13463834193594</v>
+        <v>88.13463834193618</v>
       </c>
       <c r="L19" t="n">
-        <v>229.1938123344957</v>
+        <v>229.193812334496</v>
       </c>
       <c r="M19" t="n">
-        <v>389.8383804074951</v>
+        <v>389.8383804074954</v>
       </c>
       <c r="N19" t="n">
-        <v>549.8976371792423</v>
+        <v>549.8976371792427</v>
       </c>
       <c r="O19" t="n">
-        <v>686.8197138278662</v>
+        <v>686.8197138278665</v>
       </c>
       <c r="P19" t="n">
-        <v>782.696028450951</v>
+        <v>782.6960284509513</v>
       </c>
       <c r="Q19" t="n">
-        <v>767.4049643885977</v>
+        <v>782.6960284509513</v>
       </c>
       <c r="R19" t="n">
-        <v>767.4049643885977</v>
+        <v>782.6960284509513</v>
       </c>
       <c r="S19" t="n">
-        <v>767.4049643885977</v>
+        <v>782.6960284509513</v>
       </c>
       <c r="T19" t="n">
-        <v>767.4049643885977</v>
+        <v>550.703238584778</v>
       </c>
       <c r="U19" t="n">
-        <v>730.3234318332654</v>
+        <v>540.9621271062074</v>
       </c>
       <c r="V19" t="n">
-        <v>730.3234318332654</v>
+        <v>540.9621271062074</v>
       </c>
       <c r="W19" t="n">
-        <v>721.6010158725506</v>
+        <v>532.2397111454916</v>
       </c>
       <c r="X19" t="n">
-        <v>721.6010158725506</v>
+        <v>532.2397111454916</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.6010158725506</v>
+        <v>310.2045523377686</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>663.9776349843675</v>
+        <v>663.9776349843746</v>
       </c>
       <c r="C20" t="n">
-        <v>559.4778618390609</v>
+        <v>559.4778618390667</v>
       </c>
       <c r="D20" t="n">
-        <v>464.0878825881707</v>
+        <v>464.0878825881754</v>
       </c>
       <c r="E20" t="n">
-        <v>346.7361482161639</v>
+        <v>346.7361482161673</v>
       </c>
       <c r="F20" t="n">
-        <v>210.0189430482203</v>
+        <v>210.0189430482233</v>
       </c>
       <c r="G20" t="n">
-        <v>71.96783189840546</v>
+        <v>71.96783189840757</v>
       </c>
       <c r="H20" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="I20" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="J20" t="n">
-        <v>22.91874894084166</v>
+        <v>146.3995003278779</v>
       </c>
       <c r="K20" t="n">
-        <v>22.91874894084166</v>
+        <v>430.0190184707964</v>
       </c>
       <c r="L20" t="n">
-        <v>22.91874894084166</v>
+        <v>713.6385366137149</v>
       </c>
       <c r="M20" t="n">
-        <v>135.1434745973472</v>
+        <v>713.6385366137149</v>
       </c>
       <c r="N20" t="n">
-        <v>418.7629927402627</v>
+        <v>713.6385366137149</v>
       </c>
       <c r="O20" t="n">
-        <v>702.3825108831782</v>
+        <v>986.0020290261057</v>
       </c>
       <c r="P20" t="n">
-        <v>986.0020290260936</v>
+        <v>986.0020290261057</v>
       </c>
       <c r="Q20" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="R20" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="S20" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="T20" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="U20" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="V20" t="n">
-        <v>1086.39215845991</v>
+        <v>1086.392158459921</v>
       </c>
       <c r="W20" t="n">
-        <v>1001.291213839397</v>
+        <v>1001.291213839407</v>
       </c>
       <c r="X20" t="n">
-        <v>896.6950588827767</v>
+        <v>896.6950588827856</v>
       </c>
       <c r="Y20" t="n">
-        <v>780.5871889805005</v>
+        <v>780.5871889805086</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.6398926250908</v>
+        <v>758.9040103871787</v>
       </c>
       <c r="C21" t="n">
-        <v>176.6398926250908</v>
+        <v>597.2003376281334</v>
       </c>
       <c r="D21" t="n">
-        <v>176.6398926250908</v>
+        <v>458.3617006183454</v>
       </c>
       <c r="E21" t="n">
-        <v>176.6398926250908</v>
+        <v>311.3336906752166</v>
       </c>
       <c r="F21" t="n">
-        <v>176.6398926250908</v>
+        <v>176.639892625091</v>
       </c>
       <c r="G21" t="n">
-        <v>176.6398926250908</v>
+        <v>176.639892625091</v>
       </c>
       <c r="H21" t="n">
-        <v>79.90010480688036</v>
+        <v>79.90010480688061</v>
       </c>
       <c r="I21" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="J21" t="n">
-        <v>113.8353453427568</v>
+        <v>113.835345342757</v>
       </c>
       <c r="K21" t="n">
-        <v>113.8353453427568</v>
+        <v>395.7329085718997</v>
       </c>
       <c r="L21" t="n">
-        <v>295.0788926133364</v>
+        <v>663.1183272932481</v>
       </c>
       <c r="M21" t="n">
-        <v>578.6984107562519</v>
+        <v>946.7378454361666</v>
       </c>
       <c r="N21" t="n">
-        <v>578.6984107562519</v>
+        <v>946.7378454361666</v>
       </c>
       <c r="O21" t="n">
-        <v>862.3179288991673</v>
+        <v>946.7378454361666</v>
       </c>
       <c r="P21" t="n">
-        <v>1145.937447042083</v>
+        <v>946.7378454361666</v>
       </c>
       <c r="Q21" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="R21" t="n">
-        <v>1106.712612176246</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="S21" t="n">
-        <v>960.0638176978925</v>
+        <v>999.2886525637418</v>
       </c>
       <c r="T21" t="n">
-        <v>772.713421400049</v>
+        <v>999.2886525637418</v>
       </c>
       <c r="U21" t="n">
-        <v>554.2404142138571</v>
+        <v>999.2886525637418</v>
       </c>
       <c r="V21" t="n">
-        <v>325.844791662191</v>
+        <v>999.2886525637418</v>
       </c>
       <c r="W21" t="n">
-        <v>176.6398926250908</v>
+        <v>999.2886525637418</v>
       </c>
       <c r="X21" t="n">
-        <v>176.6398926250908</v>
+        <v>801.3716644415364</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.6398926250908</v>
+        <v>758.9040103871787</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>220.2531862572149</v>
+        <v>308.0769165738247</v>
       </c>
       <c r="C22" t="n">
-        <v>220.2531862572149</v>
+        <v>308.0769165738247</v>
       </c>
       <c r="D22" t="n">
-        <v>220.2531862572149</v>
+        <v>199.2032438778858</v>
       </c>
       <c r="E22" t="n">
-        <v>220.2531862572149</v>
+        <v>199.2032438778858</v>
       </c>
       <c r="F22" t="n">
-        <v>220.2531862572149</v>
+        <v>199.2032438778858</v>
       </c>
       <c r="G22" t="n">
-        <v>220.2531862572149</v>
+        <v>199.2032438778858</v>
       </c>
       <c r="H22" t="n">
-        <v>63.34877023893262</v>
+        <v>199.2032438778858</v>
       </c>
       <c r="I22" t="n">
-        <v>63.34877023893262</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="J22" t="n">
-        <v>22.91874894084166</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="K22" t="n">
-        <v>88.13463834193594</v>
+        <v>88.13463834193618</v>
       </c>
       <c r="L22" t="n">
-        <v>229.1938123344957</v>
+        <v>229.193812334496</v>
       </c>
       <c r="M22" t="n">
-        <v>389.8383804074951</v>
+        <v>389.8383804074954</v>
       </c>
       <c r="N22" t="n">
-        <v>549.8976371792423</v>
+        <v>549.8976371792427</v>
       </c>
       <c r="O22" t="n">
-        <v>686.8197138278662</v>
+        <v>686.8197138278665</v>
       </c>
       <c r="P22" t="n">
-        <v>782.696028450951</v>
+        <v>782.6960284509513</v>
       </c>
       <c r="Q22" t="n">
-        <v>767.4049643885977</v>
+        <v>767.404964388598</v>
       </c>
       <c r="R22" t="n">
-        <v>767.4049643885977</v>
+        <v>767.404964388598</v>
       </c>
       <c r="S22" t="n">
-        <v>767.4049643885977</v>
+        <v>558.5332338792845</v>
       </c>
       <c r="T22" t="n">
-        <v>535.4121745224244</v>
+        <v>326.5404440131111</v>
       </c>
       <c r="U22" t="n">
-        <v>506.4095877398158</v>
+        <v>316.7993325345406</v>
       </c>
       <c r="V22" t="n">
-        <v>506.4095877398158</v>
+        <v>316.7993325345406</v>
       </c>
       <c r="W22" t="n">
-        <v>220.2531862572149</v>
+        <v>308.0769165738247</v>
       </c>
       <c r="X22" t="n">
-        <v>220.2531862572149</v>
+        <v>308.0769165738247</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.2531862572149</v>
+        <v>308.0769165738247</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>663.9776349843686</v>
+        <v>663.9776349843746</v>
       </c>
       <c r="C23" t="n">
-        <v>559.477861839062</v>
+        <v>559.477861839067</v>
       </c>
       <c r="D23" t="n">
-        <v>464.0878825881717</v>
+        <v>464.0878825881757</v>
       </c>
       <c r="E23" t="n">
-        <v>346.7361482161646</v>
+        <v>346.7361482161676</v>
       </c>
       <c r="F23" t="n">
-        <v>210.018943048221</v>
+        <v>210.018943048223</v>
       </c>
       <c r="G23" t="n">
-        <v>71.96783189840548</v>
+        <v>71.96783189840667</v>
       </c>
       <c r="H23" t="n">
-        <v>22.91874894084167</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="I23" t="n">
-        <v>22.91874894084167</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="J23" t="n">
-        <v>22.91874894084167</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="K23" t="n">
-        <v>306.5382670837574</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="L23" t="n">
-        <v>306.5382670837574</v>
+        <v>295.0788926133395</v>
       </c>
       <c r="M23" t="n">
-        <v>306.5382670837574</v>
+        <v>578.698410756258</v>
       </c>
       <c r="N23" t="n">
-        <v>418.7629927402631</v>
+        <v>862.3179288991764</v>
       </c>
       <c r="O23" t="n">
-        <v>702.3825108831788</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="P23" t="n">
-        <v>986.0020290260945</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="Q23" t="n">
-        <v>1145.937447042084</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="R23" t="n">
-        <v>1145.937447042084</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="S23" t="n">
-        <v>1145.937447042084</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="T23" t="n">
-        <v>1145.937447042084</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="U23" t="n">
-        <v>1145.937447042084</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="V23" t="n">
-        <v>1086.392158459911</v>
+        <v>1086.392158459921</v>
       </c>
       <c r="W23" t="n">
-        <v>1001.291213839398</v>
+        <v>1001.291213839407</v>
       </c>
       <c r="X23" t="n">
-        <v>896.6950588827776</v>
+        <v>896.6950588827856</v>
       </c>
       <c r="Y23" t="n">
-        <v>780.5871889805017</v>
+        <v>780.5871889805087</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>887.3013750883257</v>
+        <v>887.3013750883259</v>
       </c>
       <c r="C24" t="n">
-        <v>725.5977023292804</v>
+        <v>725.5977023292807</v>
       </c>
       <c r="D24" t="n">
-        <v>586.7590653194925</v>
+        <v>586.7590653194927</v>
       </c>
       <c r="E24" t="n">
-        <v>439.7310553763638</v>
+        <v>439.731055376364</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0372573262381</v>
+        <v>305.0372573262384</v>
       </c>
       <c r="G24" t="n">
-        <v>176.6398926250908</v>
+        <v>176.639892625091</v>
       </c>
       <c r="H24" t="n">
-        <v>79.90010480688038</v>
+        <v>79.90010480688061</v>
       </c>
       <c r="I24" t="n">
-        <v>22.91874894084167</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="J24" t="n">
-        <v>22.91874894084167</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="K24" t="n">
-        <v>22.91874894084167</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="L24" t="n">
-        <v>306.5382670837574</v>
+        <v>95.8792910074111</v>
       </c>
       <c r="M24" t="n">
-        <v>306.5382670837574</v>
+        <v>379.4988091503296</v>
       </c>
       <c r="N24" t="n">
-        <v>578.6984107562523</v>
+        <v>663.1183272932481</v>
       </c>
       <c r="O24" t="n">
-        <v>862.317928899168</v>
+        <v>663.1183272932481</v>
       </c>
       <c r="P24" t="n">
-        <v>1145.937447042084</v>
+        <v>946.7378454361666</v>
       </c>
       <c r="Q24" t="n">
-        <v>1145.937447042084</v>
+        <v>1145.937447042095</v>
       </c>
       <c r="R24" t="n">
-        <v>1145.937447042084</v>
+        <v>1106.712612176258</v>
       </c>
       <c r="S24" t="n">
-        <v>1145.937447042084</v>
+        <v>1106.712612176258</v>
       </c>
       <c r="T24" t="n">
-        <v>1145.937447042084</v>
+        <v>919.3622158784141</v>
       </c>
       <c r="U24" t="n">
-        <v>1145.937447042084</v>
+        <v>919.3622158784141</v>
       </c>
       <c r="V24" t="n">
-        <v>1145.937447042084</v>
+        <v>919.3622158784141</v>
       </c>
       <c r="W24" t="n">
-        <v>1145.937447042084</v>
+        <v>919.3622158784141</v>
       </c>
       <c r="X24" t="n">
-        <v>1145.937447042084</v>
+        <v>919.3622158784141</v>
       </c>
       <c r="Y24" t="n">
-        <v>1046.720817869587</v>
+        <v>919.3622158784141</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>520.8282276548865</v>
+        <v>158.7732225797949</v>
       </c>
       <c r="C25" t="n">
-        <v>351.2122581165668</v>
+        <v>158.7732225797949</v>
       </c>
       <c r="D25" t="n">
-        <v>351.2122581165668</v>
+        <v>158.7732225797949</v>
       </c>
       <c r="E25" t="n">
-        <v>199.2032438778856</v>
+        <v>158.7732225797949</v>
       </c>
       <c r="F25" t="n">
-        <v>199.2032438778856</v>
+        <v>158.7732225797949</v>
       </c>
       <c r="G25" t="n">
-        <v>199.2032438778856</v>
+        <v>158.7732225797949</v>
       </c>
       <c r="H25" t="n">
-        <v>199.2032438778856</v>
+        <v>158.7732225797949</v>
       </c>
       <c r="I25" t="n">
-        <v>63.34877023893264</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="J25" t="n">
-        <v>22.91874894084167</v>
+        <v>22.9187489408419</v>
       </c>
       <c r="K25" t="n">
-        <v>88.13463834193595</v>
+        <v>88.13463834193618</v>
       </c>
       <c r="L25" t="n">
-        <v>229.1938123344957</v>
+        <v>229.193812334496</v>
       </c>
       <c r="M25" t="n">
-        <v>389.8383804074952</v>
+        <v>389.8383804074954</v>
       </c>
       <c r="N25" t="n">
-        <v>549.8976371792425</v>
+        <v>549.8976371792427</v>
       </c>
       <c r="O25" t="n">
-        <v>686.8197138278663</v>
+        <v>686.8197138278665</v>
       </c>
       <c r="P25" t="n">
-        <v>782.6960284509511</v>
+        <v>782.6960284509513</v>
       </c>
       <c r="Q25" t="n">
-        <v>767.4049643885978</v>
+        <v>782.6960284509513</v>
       </c>
       <c r="R25" t="n">
-        <v>630.3656591126769</v>
+        <v>645.6567231750304</v>
       </c>
       <c r="S25" t="n">
-        <v>630.3656591126769</v>
+        <v>436.7849926657168</v>
       </c>
       <c r="T25" t="n">
-        <v>630.3656591126769</v>
+        <v>436.7849926657168</v>
       </c>
       <c r="U25" t="n">
-        <v>529.5506436156013</v>
+        <v>427.0438811871462</v>
       </c>
       <c r="V25" t="n">
-        <v>529.5506436156013</v>
+        <v>427.0438811871462</v>
       </c>
       <c r="W25" t="n">
-        <v>520.8282276548865</v>
+        <v>418.3214652264304</v>
       </c>
       <c r="X25" t="n">
-        <v>520.8282276548865</v>
+        <v>380.8083813875178</v>
       </c>
       <c r="Y25" t="n">
-        <v>520.8282276548865</v>
+        <v>158.7732225797949</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.750266573769</v>
+        <v>1810.75026657377</v>
       </c>
       <c r="C26" t="n">
         <v>1530.836034681928</v>
@@ -6212,40 +6212,40 @@
         <v>967.2654035659612</v>
       </c>
       <c r="F26" t="n">
-        <v>655.133739651483</v>
+        <v>655.1337396514828</v>
       </c>
       <c r="G26" t="n">
-        <v>341.6681697551335</v>
+        <v>341.6681697551332</v>
       </c>
       <c r="H26" t="n">
         <v>117.204628051034</v>
       </c>
       <c r="I26" t="n">
-        <v>70.26670790685175</v>
+        <v>70.26670790685174</v>
       </c>
       <c r="J26" t="n">
-        <v>293.7367974864096</v>
+        <v>293.7367974864095</v>
       </c>
       <c r="K26" t="n">
-        <v>611.0356526099625</v>
+        <v>711.0249908024844</v>
       </c>
       <c r="L26" t="n">
         <v>1154.632284966432</v>
       </c>
       <c r="M26" t="n">
-        <v>1695.032836640285</v>
+        <v>1754.369870252073</v>
       </c>
       <c r="N26" t="n">
-        <v>2281.586042640361</v>
+        <v>2340.923076252149</v>
       </c>
       <c r="O26" t="n">
         <v>2788.780854554958</v>
       </c>
       <c r="P26" t="n">
-        <v>3204.153183676621</v>
+        <v>3204.15318367662</v>
       </c>
       <c r="Q26" t="n">
-        <v>3464.077939885132</v>
+        <v>3464.077939885131</v>
       </c>
       <c r="R26" t="n">
         <v>3513.335395342587</v>
@@ -6257,7 +6257,7 @@
         <v>3322.598670684884</v>
       </c>
       <c r="U26" t="n">
-        <v>3169.782372364159</v>
+        <v>3169.782372364158</v>
       </c>
       <c r="V26" t="n">
         <v>2934.822625035451</v>
@@ -6269,7 +6269,7 @@
         <v>2394.296607965248</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.774279316437</v>
+        <v>2102.774279316438</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>127.2480637728904</v>
       </c>
       <c r="I27" t="n">
-        <v>70.26670790685175</v>
+        <v>70.26670790685174</v>
       </c>
       <c r="J27" t="n">
         <v>161.1833043087668</v>
       </c>
       <c r="K27" t="n">
-        <v>161.1833043087668</v>
+        <v>443.0808675379095</v>
       </c>
       <c r="L27" t="n">
-        <v>597.4728427501042</v>
+        <v>879.3704059792469</v>
       </c>
       <c r="M27" t="n">
-        <v>917.5539092441998</v>
+        <v>1446.636233790624</v>
       </c>
       <c r="N27" t="n">
         <v>1513.22847857286</v>
@@ -6379,7 +6379,7 @@
         <v>104.1016547704534</v>
       </c>
       <c r="I28" t="n">
-        <v>70.26670790685175</v>
+        <v>70.26670790685174</v>
       </c>
       <c r="J28" t="n">
         <v>130.6305822251146</v>
@@ -6449,10 +6449,10 @@
         <v>967.2654035659614</v>
       </c>
       <c r="F29" t="n">
-        <v>655.133739651483</v>
+        <v>655.1337396514831</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6681697551334</v>
+        <v>341.6681697551325</v>
       </c>
       <c r="H29" t="n">
         <v>117.204628051034</v>
@@ -6461,22 +6461,22 @@
         <v>70.26670790685175</v>
       </c>
       <c r="J29" t="n">
-        <v>293.7367974864096</v>
+        <v>193.7474592938877</v>
       </c>
       <c r="K29" t="n">
-        <v>611.0356526099625</v>
+        <v>611.0356526099627</v>
       </c>
       <c r="L29" t="n">
-        <v>1095.295251354644</v>
+        <v>1154.632284966432</v>
       </c>
       <c r="M29" t="n">
-        <v>1695.032836640285</v>
+        <v>1754.369870252073</v>
       </c>
       <c r="N29" t="n">
-        <v>2281.586042640361</v>
+        <v>2340.923076252149</v>
       </c>
       <c r="O29" t="n">
-        <v>2788.780854554958</v>
+        <v>2848.117888166746</v>
       </c>
       <c r="P29" t="n">
         <v>3204.153183676621</v>
@@ -6543,22 +6543,22 @@
         <v>70.26670790685175</v>
       </c>
       <c r="K30" t="n">
-        <v>113.1981445974134</v>
+        <v>70.26670790685175</v>
       </c>
       <c r="L30" t="n">
-        <v>549.4876830387508</v>
+        <v>506.5562463481891</v>
       </c>
       <c r="M30" t="n">
-        <v>1116.753510850128</v>
+        <v>1073.822074159566</v>
       </c>
       <c r="N30" t="n">
-        <v>1712.428080178789</v>
+        <v>1669.496643488227</v>
       </c>
       <c r="O30" t="n">
-        <v>2181.845705074321</v>
+        <v>2138.91426838376</v>
       </c>
       <c r="P30" t="n">
-        <v>2545.915615454805</v>
+        <v>2502.984178764244</v>
       </c>
       <c r="Q30" t="n">
         <v>2545.915615454805</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.7085780007574</v>
+        <v>444.7085780007573</v>
       </c>
       <c r="C31" t="n">
-        <v>377.112135237789</v>
+        <v>377.1121352377889</v>
       </c>
       <c r="D31" t="n">
         <v>326.059768840903</v>
       </c>
       <c r="E31" t="n">
-        <v>276.0702813775732</v>
+        <v>276.0702813775731</v>
       </c>
       <c r="F31" t="n">
         <v>225.6091531787016</v>
@@ -6622,16 +6622,16 @@
         <v>130.6305822251146</v>
       </c>
       <c r="K31" t="n">
-        <v>295.8358098187308</v>
+        <v>295.8358098187305</v>
       </c>
       <c r="L31" t="n">
-        <v>536.8843220038124</v>
+        <v>536.8843220038121</v>
       </c>
       <c r="M31" t="n">
-        <v>797.5182282693336</v>
+        <v>797.5182282693333</v>
       </c>
       <c r="N31" t="n">
-        <v>1057.566823233603</v>
+        <v>1057.566823233602</v>
       </c>
       <c r="O31" t="n">
         <v>1294.478238074748</v>
@@ -6646,10 +6646,10 @@
         <v>1540.326678694795</v>
       </c>
       <c r="S31" t="n">
-        <v>1433.474474960833</v>
+        <v>1433.474474960832</v>
       </c>
       <c r="T31" t="n">
-        <v>1303.501211870011</v>
+        <v>1303.50121187001</v>
       </c>
       <c r="U31" t="n">
         <v>1118.345641644906</v>
@@ -6664,7 +6664,7 @@
         <v>646.2600519421575</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.244419909786</v>
+        <v>526.2444199097857</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>1530.836034681927</v>
       </c>
       <c r="D32" t="n">
-        <v>1260.031596684501</v>
+        <v>1260.031596684502</v>
       </c>
       <c r="E32" t="n">
-        <v>967.2654035659596</v>
+        <v>967.26540356596</v>
       </c>
       <c r="F32" t="n">
-        <v>655.1337396514811</v>
+        <v>655.1337396514816</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6681697551327</v>
+        <v>341.6681697551326</v>
       </c>
       <c r="H32" t="n">
-        <v>117.2046280510341</v>
+        <v>117.204628051034</v>
       </c>
       <c r="I32" t="n">
         <v>70.26670790685174</v>
       </c>
       <c r="J32" t="n">
-        <v>293.7367974864094</v>
+        <v>293.7367974864095</v>
       </c>
       <c r="K32" t="n">
-        <v>711.0249908024841</v>
+        <v>711.0249908024844</v>
       </c>
       <c r="L32" t="n">
-        <v>1154.632284966432</v>
+        <v>1254.621623158954</v>
       </c>
       <c r="M32" t="n">
-        <v>1754.369870252073</v>
+        <v>1854.359208444595</v>
       </c>
       <c r="N32" t="n">
-        <v>2340.923076252149</v>
+        <v>2381.575380832883</v>
       </c>
       <c r="O32" t="n">
-        <v>2788.780854554958</v>
+        <v>2888.77019274748</v>
       </c>
       <c r="P32" t="n">
-        <v>3204.153183676621</v>
+        <v>3204.15318367662</v>
       </c>
       <c r="Q32" t="n">
         <v>3464.077939885131</v>
@@ -6731,7 +6731,7 @@
         <v>3322.598670684884</v>
       </c>
       <c r="U32" t="n">
-        <v>3169.782372364158</v>
+        <v>3169.782372364157</v>
       </c>
       <c r="V32" t="n">
         <v>2934.82262503545</v>
@@ -6789,13 +6789,13 @@
         <v>1355.719637388709</v>
       </c>
       <c r="N33" t="n">
-        <v>1712.428080178789</v>
+        <v>1513.22847857286</v>
       </c>
       <c r="O33" t="n">
-        <v>2181.845705074321</v>
+        <v>1982.646103468393</v>
       </c>
       <c r="P33" t="n">
-        <v>2545.915615454805</v>
+        <v>2346.716013848877</v>
       </c>
       <c r="Q33" t="n">
         <v>2545.915615454805</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.7085780007581</v>
+        <v>444.7085780007576</v>
       </c>
       <c r="C34" t="n">
-        <v>377.1121352377896</v>
+        <v>377.1121352377892</v>
       </c>
       <c r="D34" t="n">
-        <v>326.0597688409035</v>
+        <v>326.0597688409032</v>
       </c>
       <c r="E34" t="n">
-        <v>276.0702813775736</v>
+        <v>276.0702813775733</v>
       </c>
       <c r="F34" t="n">
-        <v>225.6091531787019</v>
+        <v>225.6091531787017</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9865440133846</v>
+        <v>158.9865440133844</v>
       </c>
       <c r="H34" t="n">
         <v>104.1016547704535</v>
@@ -6856,52 +6856,52 @@
         <v>70.26670790685174</v>
       </c>
       <c r="J34" t="n">
-        <v>130.6305822251145</v>
+        <v>130.6305822251146</v>
       </c>
       <c r="K34" t="n">
-        <v>295.8358098187326</v>
+        <v>295.8358098187306</v>
       </c>
       <c r="L34" t="n">
-        <v>536.8843220038141</v>
+        <v>536.8843220038123</v>
       </c>
       <c r="M34" t="n">
-        <v>797.5182282693352</v>
+        <v>797.5182282693333</v>
       </c>
       <c r="N34" t="n">
-        <v>1057.566823233604</v>
+        <v>1057.566823233603</v>
       </c>
       <c r="O34" t="n">
-        <v>1294.47823807475</v>
+        <v>1294.478238074749</v>
       </c>
       <c r="P34" t="n">
         <v>1490.343890890356</v>
       </c>
       <c r="Q34" t="n">
-        <v>1575.346457195366</v>
+        <v>1575.346457195365</v>
       </c>
       <c r="R34" t="n">
-        <v>1540.326678694796</v>
+        <v>1540.326678694795</v>
       </c>
       <c r="S34" t="n">
-        <v>1433.474474960834</v>
+        <v>1433.474474960833</v>
       </c>
       <c r="T34" t="n">
-        <v>1303.501211870012</v>
+        <v>1303.501211870011</v>
       </c>
       <c r="U34" t="n">
         <v>1118.345641644907</v>
       </c>
       <c r="V34" t="n">
-        <v>959.6298639786811</v>
+        <v>959.6298639786804</v>
       </c>
       <c r="W34" t="n">
-        <v>775.4929892714314</v>
+        <v>775.4929892714308</v>
       </c>
       <c r="X34" t="n">
-        <v>646.2600519421584</v>
+        <v>646.2600519421578</v>
       </c>
       <c r="Y34" t="n">
-        <v>526.2444199097866</v>
+        <v>526.2444199097862</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1277.059313318404</v>
+        <v>1277.059313318399</v>
       </c>
       <c r="C35" t="n">
-        <v>1074.450795454953</v>
+        <v>1074.450795454948</v>
       </c>
       <c r="D35" t="n">
-        <v>880.9520714859179</v>
+        <v>880.9520714859143</v>
       </c>
       <c r="E35" t="n">
-        <v>665.4915923957661</v>
+        <v>665.4915923957635</v>
       </c>
       <c r="F35" t="n">
-        <v>430.6656425096778</v>
+        <v>430.6656425096762</v>
       </c>
       <c r="G35" t="n">
-        <v>194.5057866417186</v>
+        <v>194.5057866417173</v>
       </c>
       <c r="H35" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600984</v>
       </c>
       <c r="I35" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600984</v>
       </c>
       <c r="J35" t="n">
-        <v>170.8287103530461</v>
+        <v>170.8287103530458</v>
       </c>
       <c r="K35" t="n">
-        <v>170.8287103530461</v>
+        <v>488.1275654765988</v>
       </c>
       <c r="L35" t="n">
-        <v>498.5619507326259</v>
+        <v>931.7348596405466</v>
       </c>
       <c r="M35" t="n">
-        <v>998.310197825745</v>
+        <v>1431.483106733666</v>
       </c>
       <c r="N35" t="n">
-        <v>1484.874065633299</v>
+        <v>1918.04697454122</v>
       </c>
       <c r="O35" t="n">
-        <v>1892.079539355374</v>
+        <v>2325.252448263295</v>
       </c>
       <c r="P35" t="n">
-        <v>2207.462530284515</v>
+        <v>2367.397948300492</v>
       </c>
       <c r="Q35" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300492</v>
       </c>
       <c r="R35" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300492</v>
       </c>
       <c r="S35" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300492</v>
       </c>
       <c r="T35" t="n">
-        <v>2325.073433259178</v>
+        <v>2325.073433259167</v>
       </c>
       <c r="U35" t="n">
-        <v>2249.562848966843</v>
+        <v>2249.562848966832</v>
       </c>
       <c r="V35" t="n">
-        <v>2091.908815666526</v>
+        <v>2091.908815666516</v>
       </c>
       <c r="W35" t="n">
-        <v>1908.699126327868</v>
+        <v>1908.69912632786</v>
       </c>
       <c r="X35" t="n">
-        <v>1705.994226653103</v>
+        <v>1705.994226653095</v>
       </c>
       <c r="Y35" t="n">
-        <v>1491.777612032682</v>
+        <v>1491.777612032675</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>795.3565017658721</v>
+        <v>795.3565017658598</v>
       </c>
       <c r="C36" t="n">
-        <v>633.6528290068268</v>
+        <v>633.6528290068145</v>
       </c>
       <c r="D36" t="n">
-        <v>494.8141919970388</v>
+        <v>494.8141919970266</v>
       </c>
       <c r="E36" t="n">
-        <v>347.7861820539101</v>
+        <v>347.7861820538978</v>
       </c>
       <c r="F36" t="n">
-        <v>213.0923840037844</v>
+        <v>213.0923840037721</v>
       </c>
       <c r="G36" t="n">
-        <v>84.69501930263706</v>
+        <v>84.69501930262479</v>
       </c>
       <c r="H36" t="n">
-        <v>47.34795896601008</v>
+        <v>84.69501930262479</v>
       </c>
       <c r="I36" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600984</v>
       </c>
       <c r="J36" t="n">
-        <v>138.2645553679252</v>
+        <v>47.34795896600984</v>
       </c>
       <c r="K36" t="n">
-        <v>420.1621185970679</v>
+        <v>329.2455221951525</v>
       </c>
       <c r="L36" t="n">
-        <v>856.4516570384053</v>
+        <v>765.5350606364899</v>
       </c>
       <c r="M36" t="n">
-        <v>1423.717484849783</v>
+        <v>1332.800888447867</v>
       </c>
       <c r="N36" t="n">
-        <v>1533.910413024488</v>
+        <v>1533.910413024475</v>
       </c>
       <c r="O36" t="n">
-        <v>2003.328037920021</v>
+        <v>2003.328037920008</v>
       </c>
       <c r="P36" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300492</v>
       </c>
       <c r="Q36" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300492</v>
       </c>
       <c r="R36" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300492</v>
       </c>
       <c r="S36" t="n">
-        <v>2220.749153822151</v>
+        <v>2220.749153822139</v>
       </c>
       <c r="T36" t="n">
-        <v>2033.398757524308</v>
+        <v>2033.398757524295</v>
       </c>
       <c r="U36" t="n">
-        <v>1814.925750338116</v>
+        <v>1814.925750338103</v>
       </c>
       <c r="V36" t="n">
-        <v>1586.53012778645</v>
+        <v>1586.530127786437</v>
       </c>
       <c r="W36" t="n">
-        <v>1345.21425901976</v>
+        <v>1345.214259019747</v>
       </c>
       <c r="X36" t="n">
-        <v>1147.297270897554</v>
+        <v>1147.297270897542</v>
       </c>
       <c r="Y36" t="n">
-        <v>954.775944547133</v>
+        <v>954.7759445471207</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>329.9528500092025</v>
+        <v>314.6617859468572</v>
       </c>
       <c r="C37" t="n">
-        <v>200.4198521382474</v>
+        <v>199.8286139402327</v>
       </c>
       <c r="D37" t="n">
-        <v>47.34795896601008</v>
+        <v>199.8286139402327</v>
       </c>
       <c r="E37" t="n">
-        <v>47.34795896601008</v>
+        <v>199.8286139402327</v>
       </c>
       <c r="F37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600984</v>
       </c>
       <c r="G37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600984</v>
       </c>
       <c r="H37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600984</v>
       </c>
       <c r="I37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600984</v>
       </c>
       <c r="J37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600984</v>
       </c>
       <c r="K37" t="n">
-        <v>112.5638483671044</v>
+        <v>112.5638483671041</v>
       </c>
       <c r="L37" t="n">
-        <v>253.6230223596642</v>
+        <v>253.6230223596639</v>
       </c>
       <c r="M37" t="n">
-        <v>414.2675904326636</v>
+        <v>414.2675904326633</v>
       </c>
       <c r="N37" t="n">
-        <v>574.3268472044108</v>
+        <v>574.3268472044106</v>
       </c>
       <c r="O37" t="n">
-        <v>711.2489238530346</v>
+        <v>711.2489238530344</v>
       </c>
       <c r="P37" t="n">
-        <v>807.1252384761194</v>
+        <v>807.1252384761192</v>
       </c>
       <c r="Q37" t="n">
-        <v>807.1252384761194</v>
+        <v>791.8341744137659</v>
       </c>
       <c r="R37" t="n">
-        <v>807.1252384761194</v>
+        <v>791.8341744137659</v>
       </c>
       <c r="S37" t="n">
-        <v>777.5787487705472</v>
+        <v>762.2876847081948</v>
       </c>
       <c r="T37" t="n">
-        <v>724.9111997081153</v>
+        <v>709.6201356457639</v>
       </c>
       <c r="U37" t="n">
-        <v>617.061343511401</v>
+        <v>601.7702794490506</v>
       </c>
       <c r="V37" t="n">
-        <v>535.6512798735649</v>
+        <v>520.3602158112155</v>
       </c>
       <c r="W37" t="n">
-        <v>428.8201191947054</v>
+        <v>413.529055132357</v>
       </c>
       <c r="X37" t="n">
-        <v>376.8928958938225</v>
+        <v>361.6018318314751</v>
       </c>
       <c r="Y37" t="n">
-        <v>334.182977889841</v>
+        <v>318.8919138274946</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1277.059313318405</v>
+        <v>1277.059313318398</v>
       </c>
       <c r="C38" t="n">
-        <v>1074.450795454954</v>
+        <v>1074.450795454948</v>
       </c>
       <c r="D38" t="n">
-        <v>880.9520714859185</v>
+        <v>880.9520714859143</v>
       </c>
       <c r="E38" t="n">
-        <v>665.4915923957667</v>
+        <v>665.4915923957635</v>
       </c>
       <c r="F38" t="n">
-        <v>430.6656425096784</v>
+        <v>430.6656425096762</v>
       </c>
       <c r="G38" t="n">
-        <v>194.5057866417186</v>
+        <v>194.5057866417173</v>
       </c>
       <c r="H38" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="I38" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="J38" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="K38" t="n">
-        <v>364.6468140895631</v>
+        <v>54.95465656866548</v>
       </c>
       <c r="L38" t="n">
-        <v>808.2541082535108</v>
+        <v>498.5619507326132</v>
       </c>
       <c r="M38" t="n">
-        <v>1308.00235534663</v>
+        <v>998.3101978257323</v>
       </c>
       <c r="N38" t="n">
-        <v>1794.566223154184</v>
+        <v>1484.874065633287</v>
       </c>
       <c r="O38" t="n">
-        <v>2201.771696876259</v>
+        <v>1892.079539355362</v>
       </c>
       <c r="P38" t="n">
-        <v>2367.397948300505</v>
+        <v>2207.462530284502</v>
       </c>
       <c r="Q38" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="R38" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="S38" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="T38" t="n">
-        <v>2325.073433259179</v>
+        <v>2325.073433259166</v>
       </c>
       <c r="U38" t="n">
-        <v>2249.562848966843</v>
+        <v>2249.562848966832</v>
       </c>
       <c r="V38" t="n">
-        <v>2091.908815666526</v>
+        <v>2091.908815666516</v>
       </c>
       <c r="W38" t="n">
-        <v>1908.699126327868</v>
+        <v>1908.699126327859</v>
       </c>
       <c r="X38" t="n">
-        <v>1705.994226653103</v>
+        <v>1705.994226653095</v>
       </c>
       <c r="Y38" t="n">
-        <v>1491.777612032683</v>
+        <v>1491.777612032675</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>911.7305851134942</v>
+        <v>756.1316669000221</v>
       </c>
       <c r="C39" t="n">
-        <v>750.0269123544489</v>
+        <v>594.4279941409768</v>
       </c>
       <c r="D39" t="n">
-        <v>611.188275344661</v>
+        <v>455.5893571311889</v>
       </c>
       <c r="E39" t="n">
-        <v>464.1602654015322</v>
+        <v>308.5613471880601</v>
       </c>
       <c r="F39" t="n">
-        <v>329.4664673514066</v>
+        <v>173.8675491379344</v>
       </c>
       <c r="G39" t="n">
-        <v>201.0691026502593</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3293148320488</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="I39" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="J39" t="n">
-        <v>138.2645553679252</v>
+        <v>138.2645553679249</v>
       </c>
       <c r="K39" t="n">
-        <v>420.1621185970679</v>
+        <v>420.1621185970676</v>
       </c>
       <c r="L39" t="n">
-        <v>748.7798192141853</v>
+        <v>420.1621185970676</v>
       </c>
       <c r="M39" t="n">
-        <v>748.7798192141853</v>
+        <v>987.427946408445</v>
       </c>
       <c r="N39" t="n">
-        <v>1334.71081141856</v>
+        <v>1334.710811418547</v>
       </c>
       <c r="O39" t="n">
-        <v>1804.128436314093</v>
+        <v>1804.128436314079</v>
       </c>
       <c r="P39" t="n">
-        <v>2168.198346694577</v>
+        <v>2168.198346694563</v>
       </c>
       <c r="Q39" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="R39" t="n">
-        <v>2367.397948300505</v>
+        <v>2328.173113434654</v>
       </c>
       <c r="S39" t="n">
-        <v>2337.123237169773</v>
+        <v>2181.524318956301</v>
       </c>
       <c r="T39" t="n">
-        <v>2149.772840871929</v>
+        <v>1994.173922658458</v>
       </c>
       <c r="U39" t="n">
-        <v>1931.299833685737</v>
+        <v>1775.700915472266</v>
       </c>
       <c r="V39" t="n">
-        <v>1702.904211134071</v>
+        <v>1547.3052929206</v>
       </c>
       <c r="W39" t="n">
-        <v>1461.588342367382</v>
+        <v>1305.98942415391</v>
       </c>
       <c r="X39" t="n">
-        <v>1263.671354245176</v>
+        <v>1108.072436031704</v>
       </c>
       <c r="Y39" t="n">
-        <v>1071.150027894755</v>
+        <v>915.551109681283</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>314.6617859468492</v>
+        <v>135.3365451431148</v>
       </c>
       <c r="C40" t="n">
-        <v>314.6617859468492</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="D40" t="n">
-        <v>161.589892774612</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="E40" t="n">
-        <v>161.589892774612</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="F40" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="G40" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="H40" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="I40" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="J40" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="K40" t="n">
-        <v>112.5638483671044</v>
+        <v>112.5638483671041</v>
       </c>
       <c r="L40" t="n">
-        <v>253.6230223596642</v>
+        <v>253.6230223596639</v>
       </c>
       <c r="M40" t="n">
-        <v>414.2675904326636</v>
+        <v>414.2675904326633</v>
       </c>
       <c r="N40" t="n">
-        <v>574.3268472044108</v>
+        <v>574.3268472044106</v>
       </c>
       <c r="O40" t="n">
-        <v>711.2489238530346</v>
+        <v>711.2489238530344</v>
       </c>
       <c r="P40" t="n">
-        <v>807.1252384761194</v>
+        <v>807.1252384761192</v>
       </c>
       <c r="Q40" t="n">
-        <v>791.8341744137662</v>
+        <v>791.8341744137659</v>
       </c>
       <c r="R40" t="n">
-        <v>791.8341744137662</v>
+        <v>791.8341744137659</v>
       </c>
       <c r="S40" t="n">
-        <v>762.287684708194</v>
+        <v>762.2876847081948</v>
       </c>
       <c r="T40" t="n">
-        <v>709.620135645762</v>
+        <v>709.6201356457639</v>
       </c>
       <c r="U40" t="n">
-        <v>601.7702794490477</v>
+        <v>601.7702794490506</v>
       </c>
       <c r="V40" t="n">
-        <v>520.3602158112117</v>
+        <v>520.3602158112155</v>
       </c>
       <c r="W40" t="n">
-        <v>413.5290551323521</v>
+        <v>413.529055132357</v>
       </c>
       <c r="X40" t="n">
-        <v>361.6018318314693</v>
+        <v>182.2765910277328</v>
       </c>
       <c r="Y40" t="n">
-        <v>318.8919138274877</v>
+        <v>139.5666730237522</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1277.059313318405</v>
+        <v>1277.059313318398</v>
       </c>
       <c r="C41" t="n">
-        <v>1074.450795454953</v>
+        <v>1074.450795454948</v>
       </c>
       <c r="D41" t="n">
-        <v>880.9520714859182</v>
+        <v>880.9520714859141</v>
       </c>
       <c r="E41" t="n">
-        <v>665.4915923957662</v>
+        <v>665.4915923957633</v>
       </c>
       <c r="F41" t="n">
-        <v>430.6656425096778</v>
+        <v>430.665642509676</v>
       </c>
       <c r="G41" t="n">
-        <v>194.5057866417187</v>
+        <v>194.5057866417173</v>
       </c>
       <c r="H41" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="I41" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="J41" t="n">
-        <v>170.8287103530461</v>
+        <v>170.8287103530458</v>
       </c>
       <c r="K41" t="n">
-        <v>488.1275654765991</v>
+        <v>488.1275654765988</v>
       </c>
       <c r="L41" t="n">
-        <v>658.4973687486158</v>
+        <v>931.7348596405466</v>
       </c>
       <c r="M41" t="n">
-        <v>1158.245615841735</v>
+        <v>1431.483106733666</v>
       </c>
       <c r="N41" t="n">
-        <v>1644.809483649289</v>
+        <v>1918.04697454122</v>
       </c>
       <c r="O41" t="n">
-        <v>2052.014957371364</v>
+        <v>2325.252448263295</v>
       </c>
       <c r="P41" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="Q41" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="R41" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="S41" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="T41" t="n">
-        <v>2325.073433259179</v>
+        <v>2325.073433259166</v>
       </c>
       <c r="U41" t="n">
-        <v>2249.562848966844</v>
+        <v>2249.562848966832</v>
       </c>
       <c r="V41" t="n">
-        <v>2091.908815666527</v>
+        <v>2091.908815666516</v>
       </c>
       <c r="W41" t="n">
-        <v>1908.699126327869</v>
+        <v>1908.699126327859</v>
       </c>
       <c r="X41" t="n">
-        <v>1705.994226653103</v>
+        <v>1705.994226653095</v>
       </c>
       <c r="Y41" t="n">
-        <v>1491.777612032683</v>
+        <v>1491.777612032675</v>
       </c>
     </row>
     <row r="42">
@@ -7464,61 +7464,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>911.7305851134942</v>
+        <v>911.7305851134939</v>
       </c>
       <c r="C42" t="n">
-        <v>750.0269123544489</v>
+        <v>750.0269123544487</v>
       </c>
       <c r="D42" t="n">
-        <v>611.188275344661</v>
+        <v>611.1882753446607</v>
       </c>
       <c r="E42" t="n">
-        <v>464.1602654015322</v>
+        <v>464.160265401532</v>
       </c>
       <c r="F42" t="n">
-        <v>329.4664673514066</v>
+        <v>329.4664673514063</v>
       </c>
       <c r="G42" t="n">
-        <v>201.0691026502593</v>
+        <v>201.069102650259</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3293148320488</v>
+        <v>104.3293148320485</v>
       </c>
       <c r="I42" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="J42" t="n">
-        <v>138.2645553679252</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="K42" t="n">
-        <v>420.1621185970679</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="L42" t="n">
-        <v>420.1621185970679</v>
+        <v>483.6374974073472</v>
       </c>
       <c r="M42" t="n">
-        <v>987.4279464084452</v>
+        <v>1050.903325218725</v>
       </c>
       <c r="N42" t="n">
-        <v>1573.35893861282</v>
+        <v>1334.710811418547</v>
       </c>
       <c r="O42" t="n">
-        <v>1804.128436314093</v>
+        <v>1804.128436314079</v>
       </c>
       <c r="P42" t="n">
-        <v>2168.198346694577</v>
+        <v>2168.198346694563</v>
       </c>
       <c r="Q42" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="R42" t="n">
-        <v>2367.397948300505</v>
+        <v>2328.173113434654</v>
       </c>
       <c r="S42" t="n">
-        <v>2337.123237169773</v>
+        <v>2181.524318956301</v>
       </c>
       <c r="T42" t="n">
-        <v>2149.772840871929</v>
+        <v>1994.173922658458</v>
       </c>
       <c r="U42" t="n">
         <v>1931.299833685737</v>
@@ -7527,7 +7527,7 @@
         <v>1702.904211134071</v>
       </c>
       <c r="W42" t="n">
-        <v>1461.588342367382</v>
+        <v>1461.588342367381</v>
       </c>
       <c r="X42" t="n">
         <v>1263.671354245176</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="C43" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="D43" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="E43" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="F43" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="G43" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="H43" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="I43" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="J43" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="K43" t="n">
-        <v>112.5638483671044</v>
+        <v>112.5638483671041</v>
       </c>
       <c r="L43" t="n">
-        <v>253.6230223596642</v>
+        <v>253.6230223596639</v>
       </c>
       <c r="M43" t="n">
-        <v>414.2675904326636</v>
+        <v>414.2675904326633</v>
       </c>
       <c r="N43" t="n">
-        <v>574.3268472044108</v>
+        <v>574.3268472044106</v>
       </c>
       <c r="O43" t="n">
-        <v>711.2489238530346</v>
+        <v>711.2489238530344</v>
       </c>
       <c r="P43" t="n">
-        <v>807.1252384761194</v>
+        <v>807.1252384761192</v>
       </c>
       <c r="Q43" t="n">
-        <v>807.1252384761194</v>
+        <v>807.1252384761192</v>
       </c>
       <c r="R43" t="n">
-        <v>807.1252384761194</v>
+        <v>807.1252384761192</v>
       </c>
       <c r="S43" t="n">
-        <v>777.5787487705471</v>
+        <v>777.578748770548</v>
       </c>
       <c r="T43" t="n">
-        <v>724.9111997081151</v>
+        <v>724.9111997081171</v>
       </c>
       <c r="U43" t="n">
-        <v>617.0613435114007</v>
+        <v>617.0613435114037</v>
       </c>
       <c r="V43" t="n">
-        <v>535.6512798735645</v>
+        <v>535.6512798735687</v>
       </c>
       <c r="W43" t="n">
-        <v>249.4948783909636</v>
+        <v>428.8201191947101</v>
       </c>
       <c r="X43" t="n">
-        <v>94.2880048506303</v>
+        <v>197.5676550900859</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.57808684664866</v>
+        <v>51.57808684664732</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1277.059313318404</v>
+        <v>1277.059313318398</v>
       </c>
       <c r="C44" t="n">
-        <v>1074.450795454953</v>
+        <v>1074.450795454948</v>
       </c>
       <c r="D44" t="n">
-        <v>880.9520714859179</v>
+        <v>880.9520714859136</v>
       </c>
       <c r="E44" t="n">
-        <v>665.4915923957662</v>
+        <v>665.4915923957626</v>
       </c>
       <c r="F44" t="n">
-        <v>430.6656425096778</v>
+        <v>430.6656425096755</v>
       </c>
       <c r="G44" t="n">
-        <v>194.5057866417187</v>
+        <v>194.5057866417173</v>
       </c>
       <c r="H44" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="I44" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="J44" t="n">
-        <v>170.8287103530461</v>
+        <v>170.8287103530458</v>
       </c>
       <c r="K44" t="n">
-        <v>170.8287103530461</v>
+        <v>488.1275654765988</v>
       </c>
       <c r="L44" t="n">
-        <v>614.4360045169938</v>
+        <v>931.7348596405466</v>
       </c>
       <c r="M44" t="n">
-        <v>1114.184251610113</v>
+        <v>1431.483106733666</v>
       </c>
       <c r="N44" t="n">
-        <v>1600.748119417667</v>
+        <v>1892.079539355362</v>
       </c>
       <c r="O44" t="n">
-        <v>2007.953593139742</v>
+        <v>1892.079539355362</v>
       </c>
       <c r="P44" t="n">
-        <v>2323.336584068883</v>
+        <v>2207.462530284502</v>
       </c>
       <c r="Q44" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="R44" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="S44" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="T44" t="n">
-        <v>2325.073433259179</v>
+        <v>2325.073433259166</v>
       </c>
       <c r="U44" t="n">
-        <v>2249.562848966843</v>
+        <v>2249.562848966832</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.908815666526</v>
+        <v>2091.908815666516</v>
       </c>
       <c r="W44" t="n">
-        <v>1908.699126327868</v>
+        <v>1908.699126327859</v>
       </c>
       <c r="X44" t="n">
-        <v>1705.994226653102</v>
+        <v>1705.994226653095</v>
       </c>
       <c r="Y44" t="n">
-        <v>1491.777612032682</v>
+        <v>1491.777612032675</v>
       </c>
     </row>
     <row r="45">
@@ -7701,70 +7701,70 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>911.7305851134942</v>
+        <v>911.7305851134939</v>
       </c>
       <c r="C45" t="n">
-        <v>750.0269123544489</v>
+        <v>750.0269123544487</v>
       </c>
       <c r="D45" t="n">
-        <v>611.188275344661</v>
+        <v>611.1882753446607</v>
       </c>
       <c r="E45" t="n">
-        <v>464.1602654015322</v>
+        <v>464.160265401532</v>
       </c>
       <c r="F45" t="n">
-        <v>329.4664673514066</v>
+        <v>329.4664673514063</v>
       </c>
       <c r="G45" t="n">
-        <v>201.0691026502593</v>
+        <v>201.069102650259</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3293148320488</v>
+        <v>104.3293148320485</v>
       </c>
       <c r="I45" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="J45" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="K45" t="n">
-        <v>329.2455221951528</v>
+        <v>329.2455221951525</v>
       </c>
       <c r="L45" t="n">
-        <v>765.5350606364901</v>
+        <v>329.2455221951525</v>
       </c>
       <c r="M45" t="n">
-        <v>1218.197444109718</v>
+        <v>748.7798192141751</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.128436314093</v>
+        <v>1334.710811418547</v>
       </c>
       <c r="O45" t="n">
-        <v>1804.128436314093</v>
+        <v>1804.128436314079</v>
       </c>
       <c r="P45" t="n">
-        <v>2168.198346694577</v>
+        <v>2168.198346694563</v>
       </c>
       <c r="Q45" t="n">
-        <v>2367.397948300505</v>
+        <v>2367.397948300491</v>
       </c>
       <c r="R45" t="n">
-        <v>2328.173113434668</v>
+        <v>2328.173113434654</v>
       </c>
       <c r="S45" t="n">
-        <v>2181.524318956315</v>
+        <v>2181.524318956301</v>
       </c>
       <c r="T45" t="n">
-        <v>1994.173922658471</v>
+        <v>2149.772840871929</v>
       </c>
       <c r="U45" t="n">
-        <v>1775.700915472279</v>
+        <v>1931.299833685737</v>
       </c>
       <c r="V45" t="n">
-        <v>1547.305292920613</v>
+        <v>1702.904211134071</v>
       </c>
       <c r="W45" t="n">
-        <v>1305.989424153923</v>
+        <v>1461.588342367381</v>
       </c>
       <c r="X45" t="n">
         <v>1263.671354245176</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.3479589660101</v>
+        <v>329.9528500092101</v>
       </c>
       <c r="C46" t="n">
-        <v>47.3479589660101</v>
+        <v>200.4198521382471</v>
       </c>
       <c r="D46" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="E46" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="F46" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="G46" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="H46" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="I46" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="J46" t="n">
-        <v>47.3479589660101</v>
+        <v>47.34795896600983</v>
       </c>
       <c r="K46" t="n">
-        <v>112.5638483671044</v>
+        <v>112.5638483671041</v>
       </c>
       <c r="L46" t="n">
-        <v>253.6230223596642</v>
+        <v>253.6230223596639</v>
       </c>
       <c r="M46" t="n">
-        <v>414.2675904326636</v>
+        <v>414.2675904326633</v>
       </c>
       <c r="N46" t="n">
-        <v>574.3268472044108</v>
+        <v>574.3268472044106</v>
       </c>
       <c r="O46" t="n">
-        <v>711.2489238530346</v>
+        <v>711.2489238530344</v>
       </c>
       <c r="P46" t="n">
-        <v>807.1252384761194</v>
+        <v>807.1252384761192</v>
       </c>
       <c r="Q46" t="n">
-        <v>807.1252384761194</v>
+        <v>807.1252384761192</v>
       </c>
       <c r="R46" t="n">
-        <v>807.1252384761194</v>
+        <v>807.1252384761192</v>
       </c>
       <c r="S46" t="n">
-        <v>777.5787487705471</v>
+        <v>777.578748770548</v>
       </c>
       <c r="T46" t="n">
-        <v>724.9111997081151</v>
+        <v>724.9111997081171</v>
       </c>
       <c r="U46" t="n">
-        <v>617.0613435114007</v>
+        <v>617.0613435114037</v>
       </c>
       <c r="V46" t="n">
-        <v>535.6512798735645</v>
+        <v>535.6512798735687</v>
       </c>
       <c r="W46" t="n">
-        <v>428.8201191947048</v>
+        <v>428.8201191947101</v>
       </c>
       <c r="X46" t="n">
-        <v>197.5676550900806</v>
+        <v>376.8928958938282</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.57808684664866</v>
+        <v>334.1829778898476</v>
       </c>
     </row>
   </sheetData>
@@ -8690,25 +8690,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>100.8851422783192</v>
+        <v>387.3695040388428</v>
       </c>
       <c r="L11" t="n">
-        <v>94.87140299240605</v>
+        <v>381.3557647529296</v>
       </c>
       <c r="M11" t="n">
         <v>79.57138435571348</v>
       </c>
       <c r="N11" t="n">
-        <v>352.1869861849033</v>
+        <v>363.5567091450379</v>
       </c>
       <c r="O11" t="n">
-        <v>370.2059370767613</v>
+        <v>233.9027796449895</v>
       </c>
       <c r="P11" t="n">
-        <v>386.2540046772453</v>
+        <v>99.76964291672465</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4585605689982</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,19 +8766,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.08340008201118</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>327.8803071789193</v>
+        <v>311.4822269551137</v>
       </c>
       <c r="M12" t="n">
-        <v>318.9051589674627</v>
+        <v>318.9051589674655</v>
       </c>
       <c r="N12" t="n">
-        <v>96.89046811296173</v>
+        <v>21.45360247625543</v>
       </c>
       <c r="O12" t="n">
         <v>37.86179799355357</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>95.09756801961916</v>
       </c>
       <c r="K14" t="n">
-        <v>387.3695040388399</v>
+        <v>100.8851422783192</v>
       </c>
       <c r="L14" t="n">
-        <v>94.87140299240605</v>
+        <v>381.3557647529298</v>
       </c>
       <c r="M14" t="n">
-        <v>366.0557461162342</v>
+        <v>366.0557461162372</v>
       </c>
       <c r="N14" t="n">
-        <v>77.07234738451436</v>
+        <v>363.5567091450381</v>
       </c>
       <c r="O14" t="n">
-        <v>358.8362141166296</v>
+        <v>358.6308113490663</v>
       </c>
       <c r="P14" t="n">
         <v>99.76964291672465</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4585605689982</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9006,22 +9006,22 @@
         <v>72.08340008201118</v>
       </c>
       <c r="K15" t="n">
-        <v>59.05979475358178</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>327.8803071789193</v>
+        <v>327.8803071789223</v>
       </c>
       <c r="M15" t="n">
-        <v>307.3300332397649</v>
+        <v>318.9051589674657</v>
       </c>
       <c r="N15" t="n">
-        <v>307.9379642367761</v>
+        <v>298.1021869068345</v>
       </c>
       <c r="O15" t="n">
         <v>37.86179799355357</v>
       </c>
       <c r="P15" t="n">
-        <v>332.7385767697282</v>
+        <v>46.25421500920756</v>
       </c>
       <c r="Q15" t="n">
         <v>71.88875526273689</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>95.09756801961916</v>
       </c>
       <c r="K17" t="n">
-        <v>387.3695040388399</v>
+        <v>100.8851422783192</v>
       </c>
       <c r="L17" t="n">
-        <v>381.3557647529267</v>
+        <v>381.3557647529298</v>
       </c>
       <c r="M17" t="n">
-        <v>366.0557461162342</v>
+        <v>366.0557461162372</v>
       </c>
       <c r="N17" t="n">
-        <v>227.2535517132606</v>
+        <v>363.5567091450381</v>
       </c>
       <c r="O17" t="n">
-        <v>83.7215753162406</v>
+        <v>358.6308113490663</v>
       </c>
       <c r="P17" t="n">
         <v>99.76964291672465</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>72.08340008201118</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>59.05979475358178</v>
       </c>
       <c r="L18" t="n">
-        <v>327.8803071789193</v>
+        <v>41.39594541839857</v>
       </c>
       <c r="M18" t="n">
         <v>32.42079720694197</v>
       </c>
       <c r="N18" t="n">
-        <v>298.1021869068286</v>
+        <v>307.9379642367791</v>
       </c>
       <c r="O18" t="n">
-        <v>37.86179799355357</v>
+        <v>306.2087311325158</v>
       </c>
       <c r="P18" t="n">
-        <v>332.7385767697282</v>
+        <v>332.7385767697313</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.88875526273689</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.09756801961916</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>100.8851422783192</v>
+        <v>387.3695040388429</v>
       </c>
       <c r="L20" t="n">
-        <v>94.87140299240605</v>
+        <v>381.3557647529298</v>
       </c>
       <c r="M20" t="n">
-        <v>192.9296930996585</v>
+        <v>79.57138435571348</v>
       </c>
       <c r="N20" t="n">
-        <v>363.556709145035</v>
+        <v>77.07234738451436</v>
       </c>
       <c r="O20" t="n">
-        <v>370.2059370767613</v>
+        <v>358.8362141166353</v>
       </c>
       <c r="P20" t="n">
-        <v>386.2540046772453</v>
+        <v>99.76964291672465</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9480,25 +9480,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>59.05979475358178</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>224.4702355907012</v>
+        <v>311.4822269551141</v>
       </c>
       <c r="M21" t="n">
-        <v>318.9051589674627</v>
+        <v>318.9051589674656</v>
       </c>
       <c r="N21" t="n">
         <v>21.45360247625543</v>
       </c>
       <c r="O21" t="n">
-        <v>324.3461597540742</v>
+        <v>37.86179799355357</v>
       </c>
       <c r="P21" t="n">
-        <v>332.7385767697282</v>
+        <v>46.25421500920756</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.88875526273689</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9638,25 +9638,25 @@
         <v>95.09756801961916</v>
       </c>
       <c r="K23" t="n">
-        <v>387.3695040388401</v>
+        <v>100.8851422783192</v>
       </c>
       <c r="L23" t="n">
-        <v>94.87140299240605</v>
+        <v>369.7806390252319</v>
       </c>
       <c r="M23" t="n">
-        <v>79.57138435571348</v>
+        <v>366.0557461162372</v>
       </c>
       <c r="N23" t="n">
-        <v>190.4306561284596</v>
+        <v>363.5567091450381</v>
       </c>
       <c r="O23" t="n">
-        <v>370.2059370767615</v>
+        <v>370.2059370767643</v>
       </c>
       <c r="P23" t="n">
-        <v>386.2540046772456</v>
+        <v>99.76964291672465</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4585605689982</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9720,22 +9720,22 @@
         <v>59.05979475358178</v>
       </c>
       <c r="L24" t="n">
-        <v>327.8803071789195</v>
+        <v>115.0934626573574</v>
       </c>
       <c r="M24" t="n">
-        <v>32.42079720694197</v>
+        <v>318.9051589674656</v>
       </c>
       <c r="N24" t="n">
-        <v>296.3628385090786</v>
+        <v>307.9379642367791</v>
       </c>
       <c r="O24" t="n">
-        <v>324.3461597540744</v>
+        <v>37.86179799355357</v>
       </c>
       <c r="P24" t="n">
-        <v>332.7385767697285</v>
+        <v>332.7385767697313</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.88875526273689</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9954,16 +9954,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>59.05979475358178</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>355.7350057868365</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>88.71849619568559</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10191,7 +10191,7 @@
         <v>72.08340008201118</v>
       </c>
       <c r="K30" t="n">
-        <v>102.4248823198057</v>
+        <v>59.05979475358177</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.88875526273689</v>
+        <v>115.2538428289606</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>381.7651608500731</v>
+        <v>180.5534420562061</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.88875526273689</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10586,10 +10586,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>100.8851422783192</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>425.9150801434968</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
         <v>584.3675935406823</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229274</v>
+        <v>142.3408550755096</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4585605689982</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>72.08340008201118</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>132.7595905315133</v>
+        <v>224.5945363920213</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10823,7 +10823,7 @@
         <v>95.09756801961916</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>108.5686752102946</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10838,10 +10838,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>267.0688867795992</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>114.4585605689982</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10905,13 +10905,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>373.3330167488202</v>
+        <v>41.39594541839857</v>
       </c>
       <c r="M39" t="n">
-        <v>32.42079720694197</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>613.3030895513817</v>
+        <v>372.2443752137318</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11063,7 +11063,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>266.9621133681806</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11075,7 +11075,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229274</v>
+        <v>142.3408550755091</v>
       </c>
       <c r="Q41" t="n">
         <v>114.4585605689982</v>
@@ -11136,22 +11136,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>72.08340008201118</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>59.05979475358178</v>
       </c>
       <c r="L42" t="n">
-        <v>41.39594541839857</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>613.3030895513817</v>
+        <v>308.1278309609241</v>
       </c>
       <c r="O42" t="n">
-        <v>270.9623007221121</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11297,7 +11297,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>100.8851422783192</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -11306,16 +11306,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>542.3212692246115</v>
       </c>
       <c r="O44" t="n">
-        <v>495.0402356415689</v>
+        <v>83.7215753162406</v>
       </c>
       <c r="P44" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.9649890857881</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11379,16 +11379,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>41.39594541839857</v>
       </c>
       <c r="M45" t="n">
-        <v>489.6555279879804</v>
+        <v>456.1928143978739</v>
       </c>
       <c r="N45" t="n">
-        <v>613.3030895513817</v>
+        <v>613.3030895513783</v>
       </c>
       <c r="O45" t="n">
-        <v>37.86179799355357</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.4427899637695</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>52.45557768853561</v>
+        <v>131.907976670593</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>195.4354109659802</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>217.1775485358857</v>
       </c>
       <c r="F11" t="n">
-        <v>236.349364623862</v>
+        <v>236.3493646238629</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>45.77294412754716</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>78.62715268604688</v>
+        <v>78.62715268604779</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>159.9491672039496</v>
       </c>
       <c r="W11" t="n">
-        <v>185.2492666819056</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>204.5495249146522</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.9461227108509</v>
+        <v>215.9461227108519</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>216.4427899637705</v>
       </c>
       <c r="C14" t="n">
-        <v>204.4541069214513</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>217.1775485358857</v>
       </c>
       <c r="F14" t="n">
-        <v>236.349364623862</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>23.83936977537</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>149.5579236355868</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>78.62715268604688</v>
+        <v>78.62715268604779</v>
       </c>
       <c r="V14" t="n">
-        <v>159.9491672039487</v>
+        <v>159.9491672039496</v>
       </c>
       <c r="W14" t="n">
-        <v>185.2492666819056</v>
+        <v>185.2492666819065</v>
       </c>
       <c r="X14" t="n">
-        <v>204.5495249146522</v>
+        <v>204.5495249146531</v>
       </c>
       <c r="Y14" t="n">
-        <v>166.214160365303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1228698.942890034</v>
+        <v>1228698.942890033</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1228698.942890034</v>
+        <v>1228698.942890033</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1228698.942890034</v>
+        <v>1228698.942890033</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1228698.942890034</v>
+        <v>1228698.942890033</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325497.5683906043</v>
+        <v>325497.5683906044</v>
       </c>
       <c r="C2" t="n">
+        <v>325497.5683906044</v>
+      </c>
+      <c r="D2" t="n">
         <v>325497.5683906045</v>
-      </c>
-      <c r="D2" t="n">
-        <v>325497.5683906044</v>
       </c>
       <c r="E2" t="n">
         <v>284446.8892009011</v>
       </c>
       <c r="F2" t="n">
-        <v>284446.8892009011</v>
+        <v>284446.8892009013</v>
       </c>
       <c r="G2" t="n">
         <v>326240.2257100274</v>
       </c>
       <c r="H2" t="n">
-        <v>326240.2257100275</v>
+        <v>326240.2257100274</v>
       </c>
       <c r="I2" t="n">
-        <v>326240.2257100275</v>
+        <v>326240.2257100273</v>
       </c>
       <c r="J2" t="n">
         <v>326240.2257100273</v>
@@ -26344,16 +26344,16 @@
         <v>326240.2257100274</v>
       </c>
       <c r="M2" t="n">
+        <v>326240.2257100274</v>
+      </c>
+      <c r="N2" t="n">
+        <v>326240.2257100274</v>
+      </c>
+      <c r="O2" t="n">
         <v>326240.2257100275</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>326240.2257100276</v>
-      </c>
-      <c r="O2" t="n">
-        <v>326240.2257100276</v>
-      </c>
-      <c r="P2" t="n">
-        <v>326240.2257100275</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>346912.3222696495</v>
+        <v>346912.3222696497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80799.46520607822</v>
+        <v>80799.46520607818</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154853.8671962842</v>
+        <v>154853.8671962835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80799.46520607817</v>
+        <v>80799.46520607815</v>
       </c>
       <c r="M3" t="n">
-        <v>61226.12551048498</v>
+        <v>61226.12551048573</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26442,22 +26442,22 @@
         <v>370031.7847048187</v>
       </c>
       <c r="K4" t="n">
-        <v>370031.7847048187</v>
+        <v>370031.7847048188</v>
       </c>
       <c r="L4" t="n">
         <v>370031.7847048187</v>
       </c>
       <c r="M4" t="n">
-        <v>370451.7424027851</v>
+        <v>370451.7424027852</v>
       </c>
       <c r="N4" t="n">
         <v>370451.7424027852</v>
       </c>
       <c r="O4" t="n">
-        <v>370451.7424027851</v>
+        <v>370451.7424027852</v>
       </c>
       <c r="P4" t="n">
-        <v>370451.7424027851</v>
+        <v>370451.7424027852</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35340.22236026639</v>
+        <v>35340.22236026647</v>
       </c>
       <c r="F5" t="n">
-        <v>35340.22236026639</v>
+        <v>35340.22236026649</v>
       </c>
       <c r="G5" t="n">
-        <v>43831.13516077862</v>
+        <v>43831.13516077872</v>
       </c>
       <c r="H5" t="n">
-        <v>43831.13516077862</v>
+        <v>43831.13516077872</v>
       </c>
       <c r="I5" t="n">
-        <v>43831.13516077863</v>
+        <v>43831.13516077872</v>
       </c>
       <c r="J5" t="n">
-        <v>65216.13502390748</v>
+        <v>65216.13502390747</v>
       </c>
       <c r="K5" t="n">
         <v>65216.13502390748</v>
@@ -26500,16 +26500,16 @@
         <v>65216.13502390747</v>
       </c>
       <c r="M5" t="n">
-        <v>54231.90976079402</v>
+        <v>54231.90976079391</v>
       </c>
       <c r="N5" t="n">
-        <v>54231.90976079403</v>
+        <v>54231.9097607939</v>
       </c>
       <c r="O5" t="n">
-        <v>54231.90976079402</v>
+        <v>54231.9097607939</v>
       </c>
       <c r="P5" t="n">
-        <v>54231.90976079402</v>
+        <v>54231.9097607939</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136960.9320872535</v>
+        <v>-136965.3006597206</v>
       </c>
       <c r="C6" t="n">
-        <v>-136960.9320872533</v>
+        <v>-136965.3006597206</v>
       </c>
       <c r="D6" t="n">
-        <v>-136960.9320872535</v>
+        <v>-136965.3006597206</v>
       </c>
       <c r="E6" t="n">
-        <v>-416984.2018251077</v>
+        <v>-417230.044981044</v>
       </c>
       <c r="F6" t="n">
-        <v>-70071.87955545816</v>
+        <v>-70317.72271139412</v>
       </c>
       <c r="G6" t="n">
-        <v>-173696.592717748</v>
+        <v>-173696.5927177481</v>
       </c>
       <c r="H6" t="n">
-        <v>-92897.12751166974</v>
+        <v>-92897.1275116699</v>
       </c>
       <c r="I6" t="n">
-        <v>-92897.12751166975</v>
+        <v>-92897.12751167007</v>
       </c>
       <c r="J6" t="n">
-        <v>-263861.5612149832</v>
+        <v>-263861.5612149824</v>
       </c>
       <c r="K6" t="n">
-        <v>-109007.6940186993</v>
+        <v>-109007.6940186994</v>
       </c>
       <c r="L6" t="n">
-        <v>-189807.1592247769</v>
+        <v>-189807.1592247768</v>
       </c>
       <c r="M6" t="n">
-        <v>-159669.5519640366</v>
+        <v>-159669.5519640374</v>
       </c>
       <c r="N6" t="n">
-        <v>-98443.42645355158</v>
+        <v>-98443.42645355174</v>
       </c>
       <c r="O6" t="n">
+        <v>-98443.42645355163</v>
+      </c>
+      <c r="P6" t="n">
         <v>-98443.42645355151</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-98443.42645355163</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="F2" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="G2" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="H2" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="I2" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="J2" t="n">
         <v>100.9993315075978</v>
@@ -26713,19 +26713,19 @@
         <v>100.9993315075978</v>
       </c>
       <c r="L2" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="M2" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="N2" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="O2" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="P2" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="3">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605235</v>
       </c>
       <c r="F4" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="G4" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="H4" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="I4" t="n">
-        <v>286.4843617605209</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="J4" t="n">
-        <v>878.3338488356468</v>
+        <v>878.3338488356467</v>
       </c>
       <c r="K4" t="n">
         <v>878.3338488356468</v>
@@ -26820,16 +26820,16 @@
         <v>878.3338488356467</v>
       </c>
       <c r="M4" t="n">
-        <v>591.849487075126</v>
+        <v>591.849487075123</v>
       </c>
       <c r="N4" t="n">
-        <v>591.8494870751263</v>
+        <v>591.8494870751229</v>
       </c>
       <c r="O4" t="n">
-        <v>591.8494870751263</v>
+        <v>591.8494870751229</v>
       </c>
       <c r="P4" t="n">
-        <v>591.8494870751263</v>
+        <v>591.8494870751229</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100.9993315075978</v>
+        <v>100.9993315075977</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>100.9993315075977</v>
       </c>
       <c r="M2" t="n">
-        <v>76.53265688810623</v>
+        <v>76.53265688810717</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605235</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.8494870751258</v>
+        <v>591.849487075123</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100.9993315075978</v>
+        <v>100.9993315075977</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605235</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="C11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="E11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="F11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="G11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="H11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="I11" t="n">
         <v>147.4678724503382</v>
@@ -28141,22 +28141,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="U11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="V11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="W11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="X11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1133910541359</v>
+        <v>32.81438190253861</v>
       </c>
       <c r="H12" t="n">
         <v>95.77238994002832</v>
       </c>
       <c r="I12" t="n">
-        <v>56.41154230737831</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>38.83258651717894</v>
       </c>
       <c r="S12" t="n">
-        <v>145.1823065335695</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="U12" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="Y12" t="n">
-        <v>126.4704203621585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -28260,10 +28260,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>131.836301585757</v>
+        <v>166.9557145812619</v>
       </c>
       <c r="H13" t="n">
-        <v>155.3353718580994</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>134.4959289025634</v>
@@ -28296,25 +28296,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="T13" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="U13" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="V13" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="W13" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="X13" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.6603141590694</v>
+        <v>120.215958862601</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="C14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="D14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="E14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="F14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="G14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="H14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="I14" t="n">
         <v>147.4678724503382</v>
@@ -28378,22 +28378,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="U14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="V14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="W14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="X14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -28412,19 +28412,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.1133910541359</v>
       </c>
       <c r="H15" t="n">
         <v>95.77238994002832</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.41154230737831</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.83258651717894</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>145.1823065335695</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>173.6603141590694</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>173.6603141590694</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>173.6603141590694</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>107.4519351434909</v>
+        <v>151.8795449537073</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>173.6603141590685</v>
       </c>
     </row>
     <row r="16">
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -28503,10 +28503,10 @@
         <v>155.3353718580994</v>
       </c>
       <c r="I16" t="n">
-        <v>108.7741650126554</v>
+        <v>134.4959289025634</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>40.02572108511005</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>15.13815342172971</v>
       </c>
       <c r="R16" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6603141590694</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>173.6603141590694</v>
+        <v>98.51518007846005</v>
       </c>
       <c r="U16" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="V16" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="W16" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="X16" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="C17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="D17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="E17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="F17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="G17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="H17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="I17" t="n">
         <v>147.4678724503382</v>
@@ -28621,16 +28621,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="W17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="X17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
     </row>
     <row r="18">
@@ -28643,13 +28643,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>150.7509353894692</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.77238994002832</v>
       </c>
       <c r="I18" t="n">
-        <v>56.41154230737831</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>38.83258651717894</v>
       </c>
       <c r="S18" t="n">
-        <v>145.1823065335695</v>
+        <v>0.7568575845051839</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>216.28827711433</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9557145812619</v>
+        <v>77.90386216151391</v>
       </c>
       <c r="H19" t="n">
-        <v>155.3353718580994</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>134.4959289025634</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.13815342172971</v>
       </c>
       <c r="R19" t="n">
         <v>135.6689122231617</v>
@@ -28773,22 +28773,22 @@
         <v>206.7830132042204</v>
       </c>
       <c r="T19" t="n">
-        <v>229.6728619675116</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>247.5926288006722</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="C20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="D20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="E20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="F20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="G20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="H20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="I20" t="n">
         <v>147.4678724503382</v>
@@ -28858,16 +28858,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="W20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="X20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
     </row>
     <row r="21">
@@ -28880,16 +28880,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>127.1133910541359</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>38.83258651717894</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.28827711433</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>91.18986003229384</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>148.5531355731028</v>
       </c>
     </row>
     <row r="22">
@@ -28962,7 +28962,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>43.75623827153537</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28974,10 +28974,10 @@
         <v>166.9557145812619</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>155.3353718580994</v>
       </c>
       <c r="I22" t="n">
-        <v>134.4959289025634</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29007,19 +29007,19 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S22" t="n">
-        <v>206.7830132042204</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>255.5907851156686</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="C23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="D23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="E23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="F23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="G23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="H23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="I23" t="n">
         <v>147.4678724503382</v>
@@ -29095,16 +29095,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="W23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="X23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
     </row>
     <row r="24">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>126.085015971261</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.83258651717894</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>145.1823065335695</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4768923348651</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>216.28827711433</v>
@@ -29183,7 +29183,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>92.37165020614486</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -29196,13 +29196,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.02572108511005</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.13815342172971</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.7830132042204</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>229.6728619675116</v>
       </c>
       <c r="U25" t="n">
-        <v>184.4964806883463</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666662</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>191.8019864630545</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29299,19 +29299,19 @@
         <v>100.9993315075978</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>100.9993315075978</v>
-      </c>
-      <c r="M26" t="n">
-        <v>41.06293391993347</v>
       </c>
       <c r="N26" t="n">
         <v>100.9993315075978</v>
       </c>
       <c r="O26" t="n">
-        <v>100.9993315075978</v>
+        <v>41.0629339199329</v>
       </c>
       <c r="P26" t="n">
         <v>100.9993315075978</v>
@@ -29533,13 +29533,13 @@
         <v>100.9993315075978</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>100.9993315075978</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>41.06293391993336</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="M29" t="n">
         <v>100.9993315075978</v>
@@ -29551,7 +29551,7 @@
         <v>100.9993315075978</v>
       </c>
       <c r="P29" t="n">
-        <v>100.9993315075978</v>
+        <v>41.0629339199333</v>
       </c>
       <c r="Q29" t="n">
         <v>100.9993315075978</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="C32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="D32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="E32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="F32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="G32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="H32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="I32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="J32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="K32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="M32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="N32" t="n">
-        <v>100.9993315075977</v>
+        <v>41.06293391993279</v>
       </c>
       <c r="O32" t="n">
-        <v>41.06293391993381</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="P32" t="n">
-        <v>100.9993315075977</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="R32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="S32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="T32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="U32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="V32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="W32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="X32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="Y32" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="C34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="D34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="E34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="F34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="G34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="H34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="I34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="J34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="K34" t="n">
-        <v>100.9993315075998</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="L34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="M34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="N34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075987</v>
       </c>
       <c r="O34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="P34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="R34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="S34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="T34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="U34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="V34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="W34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="X34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.9993315075977</v>
+        <v>100.9993315075978</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="D35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="E35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="F35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="G35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="H35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="I35" t="n">
         <v>147.4678724503382</v>
@@ -30037,22 +30037,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y35" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="36">
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>58.79880020676761</v>
+        <v>95.77238994002832</v>
       </c>
       <c r="I36" t="n">
-        <v>56.41154230737831</v>
+        <v>19.43795257412952</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,19 +30141,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C37" t="n">
-        <v>39.68214195069092</v>
+        <v>54.23496955637835</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.9557145812619</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.13815342172971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S37" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="T37" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U37" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V37" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W37" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X37" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y37" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="D38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="E38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="F38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="G38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="H38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="I38" t="n">
         <v>147.4678724503382</v>
@@ -30274,22 +30274,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y38" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="39">
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.858996783930507</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>95.77238994002832</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.41154230737831</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.83258651717894</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>115.2103425141446</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30378,19 +30378,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>80.81110952760262</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>37.85633395396482</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.9557145812619</v>
@@ -30429,25 +30429,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S40" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="T40" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U40" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V40" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W40" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X40" t="n">
-        <v>177.5319883957039</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>177.5319883957039</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="D41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="E41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="F41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="G41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="H41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="I41" t="n">
         <v>147.4678724503382</v>
@@ -30511,22 +30511,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y41" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="42">
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.83258651717894</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>115.2103425141446</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>154.0429290313369</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -30666,25 +30666,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S43" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="T43" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U43" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V43" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X43" t="n">
-        <v>75.28513465864802</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>177.5319883957038</v>
+        <v>75.28513465864151</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="D44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="E44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="F44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="G44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="H44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="I44" t="n">
         <v>147.4678724503382</v>
@@ -30748,22 +30748,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y44" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="45">
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>154.0429290313371</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>154.0429290313238</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>39.68214195068313</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30903,25 +30903,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S46" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="T46" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U46" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V46" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W46" t="n">
-        <v>177.5319883957038</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y46" t="n">
-        <v>75.28513465864808</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
   </sheetData>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6127009753700456</v>
+        <v>0.6127009753700458</v>
       </c>
       <c r="H29" t="n">
-        <v>6.274823864008482</v>
+        <v>6.274823864008483</v>
       </c>
       <c r="I29" t="n">
         <v>23.62115435295371</v>
       </c>
       <c r="J29" t="n">
-        <v>52.00222940831346</v>
+        <v>52.00222940831347</v>
       </c>
       <c r="K29" t="n">
-        <v>77.93786169572751</v>
+        <v>77.93786169572752</v>
       </c>
       <c r="L29" t="n">
-        <v>96.68880917070857</v>
+        <v>96.68880917070858</v>
       </c>
       <c r="M29" t="n">
         <v>107.5849301414456</v>
@@ -33199,10 +33199,10 @@
         <v>103.2332214638799</v>
       </c>
       <c r="P29" t="n">
-        <v>88.10716613443185</v>
+        <v>88.10716613443186</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.16481245399207</v>
+        <v>66.16481245399208</v>
       </c>
       <c r="R29" t="n">
         <v>38.48757764408867</v>
@@ -33211,10 +33211,10 @@
         <v>13.96192347624493</v>
       </c>
       <c r="T29" t="n">
-        <v>2.682098519682376</v>
+        <v>2.682098519682377</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04901607802960364</v>
+        <v>0.04901607802960365</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3278239228123789</v>
+        <v>0.327823922812379</v>
       </c>
       <c r="H30" t="n">
         <v>3.166088938740608</v>
       </c>
       <c r="I30" t="n">
-        <v>11.28692014946129</v>
+        <v>11.2869201494613</v>
       </c>
       <c r="J30" t="n">
         <v>30.97217158465551</v>
       </c>
       <c r="K30" t="n">
-        <v>52.93637441308489</v>
+        <v>52.93637441308491</v>
       </c>
       <c r="L30" t="n">
-        <v>71.17948815274922</v>
+        <v>71.17948815274923</v>
       </c>
       <c r="M30" t="n">
-        <v>83.06310535469792</v>
+        <v>83.06310535469795</v>
       </c>
       <c r="N30" t="n">
-        <v>85.26153859145289</v>
+        <v>85.2615385914529</v>
       </c>
       <c r="O30" t="n">
-        <v>77.99765061755754</v>
+        <v>77.99765061755755</v>
       </c>
       <c r="P30" t="n">
-        <v>62.59999101493577</v>
+        <v>62.59999101493578</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.8464361821556</v>
+        <v>41.84643618215561</v>
       </c>
       <c r="R30" t="n">
         <v>20.35383969882473</v>
       </c>
       <c r="S30" t="n">
-        <v>6.089185583817649</v>
+        <v>6.08918558381765</v>
       </c>
       <c r="T30" t="n">
-        <v>1.321360460809544</v>
+        <v>1.321360460809545</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02156736334291967</v>
+        <v>0.02156736334291968</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,28 +33333,28 @@
         <v>0.2748365645666047</v>
       </c>
       <c r="H31" t="n">
-        <v>2.44354691041945</v>
+        <v>2.443546910419451</v>
       </c>
       <c r="I31" t="n">
-        <v>8.265085050784805</v>
+        <v>8.265085050784807</v>
       </c>
       <c r="J31" t="n">
         <v>19.43094511485895</v>
       </c>
       <c r="K31" t="n">
-        <v>31.93101177419279</v>
+        <v>31.9310117741928</v>
       </c>
       <c r="L31" t="n">
         <v>40.86070160838413</v>
       </c>
       <c r="M31" t="n">
-        <v>43.08188075292694</v>
+        <v>43.08188075292696</v>
       </c>
       <c r="N31" t="n">
-        <v>42.05748992136054</v>
+        <v>42.05748992136055</v>
       </c>
       <c r="O31" t="n">
-        <v>38.84689914437792</v>
+        <v>38.84689914437793</v>
       </c>
       <c r="P31" t="n">
         <v>33.24023322721916</v>
@@ -33366,10 +33366,10 @@
         <v>12.35765134860388</v>
       </c>
       <c r="S31" t="n">
-        <v>4.789651766128918</v>
+        <v>4.789651766128919</v>
       </c>
       <c r="T31" t="n">
-        <v>1.174301684966401</v>
+        <v>1.174301684966402</v>
       </c>
       <c r="U31" t="n">
         <v>0.01499108533999664</v>
@@ -35410,25 +35410,25 @@
         <v>124.7280317040768</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>286.4843617605235</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>286.4843617605235</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>275.1146388003889</v>
+        <v>286.4843617605235</v>
       </c>
       <c r="O11" t="n">
-        <v>286.4843617605207</v>
+        <v>150.1812043287489</v>
       </c>
       <c r="P11" t="n">
-        <v>286.4843617605207</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>161.5509272888779</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.83494586052031</v>
       </c>
       <c r="K12" t="n">
         <v>284.7450133627704</v>
       </c>
       <c r="L12" t="n">
-        <v>286.4843617605207</v>
+        <v>270.0862815367151</v>
       </c>
       <c r="M12" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605235</v>
       </c>
       <c r="N12" t="n">
-        <v>75.4368656367063</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>124.7280317040768</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>286.4843617605207</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="M14" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="O14" t="n">
-        <v>275.114638800389</v>
+        <v>274.9092360328257</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>161.5509272888779</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>284.7450133627704</v>
       </c>
       <c r="L15" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="M15" t="n">
-        <v>274.9092360328229</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="N15" t="n">
-        <v>286.4843617605207</v>
+        <v>276.6485844305791</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>286.4843617605207</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.7280317040768</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>286.4843617605207</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="M17" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="N17" t="n">
-        <v>150.1812043287462</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>274.9092360328257</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>91.83494586052031</v>
       </c>
       <c r="K18" t="n">
-        <v>284.7450133627704</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>286.4843617605207</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>276.6485844305732</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>268.3469331389622</v>
       </c>
       <c r="P18" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>201.2117187938669</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.7280317040768</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="M20" t="n">
-        <v>113.358308743945</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>286.4843617605207</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>286.4843617605207</v>
+        <v>275.1146388003947</v>
       </c>
       <c r="P20" t="n">
-        <v>286.4843617605207</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>161.5509272888779</v>
@@ -36200,25 +36200,25 @@
         <v>91.83494586052031</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>284.7450133627704</v>
       </c>
       <c r="L21" t="n">
-        <v>183.0742901723027</v>
+        <v>270.0862815367155</v>
       </c>
       <c r="M21" t="n">
-        <v>286.4843617605207</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>286.4843617605207</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>286.4843617605207</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>201.2117187938669</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>286.4843617605209</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>274.9092360328258</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="N23" t="n">
-        <v>113.3583087439452</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="O23" t="n">
-        <v>286.4843617605209</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="P23" t="n">
-        <v>286.4843617605209</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.5509272888779</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>286.4843617605209</v>
+        <v>73.6975172389588</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="N24" t="n">
-        <v>274.9092360328232</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="O24" t="n">
-        <v>286.4843617605209</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>286.4843617605209</v>
+        <v>286.4843617605237</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>201.2117187938669</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>225.7273632116745</v>
       </c>
       <c r="K26" t="n">
-        <v>320.5038940641949</v>
+        <v>421.5032255717928</v>
       </c>
       <c r="L26" t="n">
-        <v>549.0875074307774</v>
+        <v>448.0881759231795</v>
       </c>
       <c r="M26" t="n">
-        <v>545.8591431049023</v>
+        <v>605.7955406925665</v>
       </c>
       <c r="N26" t="n">
         <v>592.4779858586628</v>
       </c>
       <c r="O26" t="n">
-        <v>512.3179918329261</v>
+        <v>452.3815942452612</v>
       </c>
       <c r="P26" t="n">
         <v>419.5680092138006</v>
@@ -36674,16 +36674,16 @@
         <v>91.83494586052031</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>284.7450133627704</v>
       </c>
       <c r="L27" t="n">
         <v>440.6965034760984</v>
       </c>
       <c r="M27" t="n">
-        <v>323.3142085798945</v>
+        <v>572.9957856680579</v>
       </c>
       <c r="N27" t="n">
-        <v>601.6914841703641</v>
+        <v>67.26489371943016</v>
       </c>
       <c r="O27" t="n">
         <v>474.1592170661948</v>
@@ -36768,7 +36768,7 @@
         <v>239.3044594355006</v>
       </c>
       <c r="P28" t="n">
-        <v>197.844093753138</v>
+        <v>197.8440937531379</v>
       </c>
       <c r="Q28" t="n">
         <v>85.86117808586808</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>225.7273632116745</v>
+        <v>124.7280317040768</v>
       </c>
       <c r="K29" t="n">
-        <v>320.5038940641949</v>
+        <v>421.5032255717928</v>
       </c>
       <c r="L29" t="n">
-        <v>489.1511098431129</v>
+        <v>549.0875074307774</v>
       </c>
       <c r="M29" t="n">
-        <v>605.7955406925665</v>
+        <v>605.7955406925666</v>
       </c>
       <c r="N29" t="n">
         <v>592.4779858586628</v>
@@ -36847,13 +36847,13 @@
         <v>512.3179918329261</v>
       </c>
       <c r="P29" t="n">
-        <v>419.5680092138006</v>
+        <v>359.6316116261361</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.5502587964757</v>
+        <v>262.5502587964758</v>
       </c>
       <c r="R29" t="n">
-        <v>49.75500551258127</v>
+        <v>49.75500551258129</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>43.36508756622392</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>440.6965034760984</v>
       </c>
       <c r="M30" t="n">
-        <v>572.9957856680579</v>
+        <v>572.995785668058</v>
       </c>
       <c r="N30" t="n">
         <v>601.6914841703641</v>
@@ -36929,7 +36929,7 @@
         <v>367.7473842227108</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>43.36508756622368</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.97361042248774</v>
+        <v>60.97361042248775</v>
       </c>
       <c r="K31" t="n">
         <v>166.8739672662789</v>
@@ -37005,10 +37005,10 @@
         <v>239.3044594355006</v>
       </c>
       <c r="P31" t="n">
-        <v>197.8440937531379</v>
+        <v>197.844093753138</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.86117808586808</v>
+        <v>85.86117808586809</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>421.5032255717927</v>
       </c>
       <c r="L32" t="n">
-        <v>448.0881759231795</v>
+        <v>549.0875074307774</v>
       </c>
       <c r="M32" t="n">
         <v>605.7955406925665</v>
       </c>
       <c r="N32" t="n">
-        <v>592.4779858586627</v>
+        <v>532.5415882709977</v>
       </c>
       <c r="O32" t="n">
-        <v>452.3815942452621</v>
+        <v>512.3179918329261</v>
       </c>
       <c r="P32" t="n">
-        <v>419.5680092138005</v>
+        <v>318.5686777062028</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.5502587964756</v>
+        <v>262.5502587964757</v>
       </c>
       <c r="R32" t="n">
-        <v>49.75500551258119</v>
+        <v>49.75500551258124</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>572.9957856680579</v>
       </c>
       <c r="N33" t="n">
-        <v>360.3115583738177</v>
+        <v>159.0998395799507</v>
       </c>
       <c r="O33" t="n">
         <v>474.1592170661948</v>
@@ -37166,7 +37166,7 @@
         <v>367.7473842227108</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>201.2117187938669</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.97361042248765</v>
+        <v>60.97361042248771</v>
       </c>
       <c r="K34" t="n">
-        <v>166.8739672662809</v>
+        <v>166.8739672662789</v>
       </c>
       <c r="L34" t="n">
         <v>243.4833456414965</v>
@@ -37236,16 +37236,16 @@
         <v>263.2665719853749</v>
       </c>
       <c r="N34" t="n">
-        <v>262.6753484487566</v>
+        <v>262.6753484487576</v>
       </c>
       <c r="O34" t="n">
-        <v>239.3044594355005</v>
+        <v>239.3044594355006</v>
       </c>
       <c r="P34" t="n">
         <v>197.8440937531379</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.86117808586799</v>
+        <v>85.86117808586805</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>124.7280317040768</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>320.5038940641949</v>
       </c>
       <c r="L35" t="n">
-        <v>331.0436771510908</v>
+        <v>448.0881759231795</v>
       </c>
       <c r="M35" t="n">
         <v>504.7962091849688</v>
@@ -37321,10 +37321,10 @@
         <v>411.3186603253283</v>
       </c>
       <c r="P35" t="n">
-        <v>318.5686777062028</v>
+        <v>42.5712121587849</v>
       </c>
       <c r="Q35" t="n">
-        <v>161.5509272888779</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>91.83494586052031</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>284.7450133627704</v>
@@ -37394,7 +37394,7 @@
         <v>572.9957856680579</v>
       </c>
       <c r="N36" t="n">
-        <v>111.3059880552578</v>
+        <v>203.1409339157659</v>
       </c>
       <c r="O36" t="n">
         <v>474.1592170661948</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>320.5038940641949</v>
+        <v>7.683532931975412</v>
       </c>
       <c r="L38" t="n">
         <v>448.0881759231795</v>
@@ -37558,10 +37558,10 @@
         <v>411.3186603253283</v>
       </c>
       <c r="P38" t="n">
-        <v>167.2992438628745</v>
+        <v>318.5686777062028</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>161.5509272888779</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>284.7450133627704</v>
       </c>
       <c r="L39" t="n">
-        <v>331.9370713304216</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>572.9957856680579</v>
       </c>
       <c r="N39" t="n">
-        <v>591.8494870751263</v>
+        <v>350.7907727374764</v>
       </c>
       <c r="O39" t="n">
         <v>474.1592170661948</v>
@@ -37783,7 +37783,7 @@
         <v>320.5038940641949</v>
       </c>
       <c r="L41" t="n">
-        <v>172.0907103757745</v>
+        <v>448.0881759231795</v>
       </c>
       <c r="M41" t="n">
         <v>504.7962091849688</v>
@@ -37795,7 +37795,7 @@
         <v>411.3186603253283</v>
       </c>
       <c r="P41" t="n">
-        <v>318.5686777062028</v>
+        <v>42.57121215878444</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>91.83494586052031</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>284.7450133627704</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>440.6965034760984</v>
       </c>
       <c r="M42" t="n">
         <v>572.9957856680579</v>
       </c>
       <c r="N42" t="n">
-        <v>591.8494870751263</v>
+        <v>286.6742284846687</v>
       </c>
       <c r="O42" t="n">
-        <v>233.1005027285585</v>
+        <v>474.1592170661948</v>
       </c>
       <c r="P42" t="n">
         <v>367.7473842227108</v>
@@ -38017,7 +38017,7 @@
         <v>124.7280317040768</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>320.5038940641949</v>
       </c>
       <c r="L44" t="n">
         <v>448.0881759231795</v>
@@ -38026,16 +38026,16 @@
         <v>504.7962091849688</v>
       </c>
       <c r="N44" t="n">
-        <v>491.478654351065</v>
+        <v>465.2489218400971</v>
       </c>
       <c r="O44" t="n">
-        <v>411.3186603253283</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>318.5686777062028</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.50642851678997</v>
+        <v>161.5509272888779</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>284.7450133627704</v>
       </c>
       <c r="L45" t="n">
-        <v>440.6965034760984</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>457.2347307810384</v>
+        <v>423.7720171909319</v>
       </c>
       <c r="N45" t="n">
-        <v>591.8494870751263</v>
+        <v>591.8494870751229</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>474.1592170661948</v>
       </c>
       <c r="P45" t="n">
         <v>367.7473842227108</v>
